--- a/analysis_results/voltage_comparison_results.xlsx
+++ b/analysis_results/voltage_comparison_results.xlsx
@@ -49,13 +49,13 @@
     <t>Mag_Within_Tolerance</t>
   </si>
   <si>
-    <t>Bus_大刀沙村2号直流</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村3号直流</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村5号直流</t>
+    <t>dcBus_3</t>
+  </si>
+  <si>
+    <t>dcBus_2</t>
+  </si>
+  <si>
+    <t>dcBus_1</t>
   </si>
   <si>
     <t>Calc_Volt_Ang</t>
@@ -70,214 +70,214 @@
     <t>Ang_Within_Tolerance</t>
   </si>
   <si>
-    <t>Bus_01塔</t>
-  </si>
-  <si>
-    <t>Bus_02塔</t>
-  </si>
-  <si>
-    <t>Bus_03杆</t>
-  </si>
-  <si>
-    <t>Bus_06杆</t>
-  </si>
-  <si>
-    <t>Bus_08塔</t>
-  </si>
-  <si>
-    <t>Bus_10塔</t>
-  </si>
-  <si>
-    <t>Bus_11杆</t>
-  </si>
-  <si>
-    <t>Bus_13塔</t>
-  </si>
-  <si>
-    <t>Bus_21杆</t>
-  </si>
-  <si>
-    <t>Bus_26塔</t>
-  </si>
-  <si>
-    <t>Bus_28塔</t>
-  </si>
-  <si>
-    <t>Bus_28杆</t>
-  </si>
-  <si>
-    <t>Bus_30杆</t>
-  </si>
-  <si>
-    <t>Bus_35杆</t>
-  </si>
-  <si>
-    <t>Bus_52杆</t>
-  </si>
-  <si>
-    <t>Bus_76杆</t>
-  </si>
-  <si>
-    <t>Bus_京毅开关房</t>
-  </si>
-  <si>
-    <t>Bus_信强贸易开关</t>
-  </si>
-  <si>
-    <t>Bus_八糖尾鱼塘支01杆</t>
-  </si>
-  <si>
-    <t>Bus_八糖鱼45杆</t>
-  </si>
-  <si>
-    <t>Bus_南派1号电缆分接箱</t>
-  </si>
-  <si>
-    <t>Bus_南清干01杆</t>
-  </si>
-  <si>
-    <t>Bus_南清干04塔开关</t>
-  </si>
-  <si>
-    <t>Bus_南清干14杆开关</t>
-  </si>
-  <si>
-    <t>Bus_南清干24杆开关</t>
-  </si>
-  <si>
-    <t>Bus_南清干27塔开关</t>
-  </si>
-  <si>
-    <t>Bus_南清干45塔与清流干01</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支01杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支18杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支28+1杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支30杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支42杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支53杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支64杆</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙支77塔</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村1号</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村2号</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村3号</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村4号</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村5号</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙村合作经济社</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙水厂_中压</t>
-  </si>
-  <si>
-    <t>Bus_大刀沙水厂_交流</t>
-  </si>
-  <si>
-    <t>Bus_市南路1号电缆分接箱</t>
-  </si>
-  <si>
-    <t>Bus_桥发支01杆</t>
-  </si>
-  <si>
-    <t>Bus_桥发支19塔开关</t>
-  </si>
-  <si>
-    <t>Bus_沙龙干01杆</t>
-  </si>
-  <si>
-    <t>Bus_沙龙干03塔开关</t>
-  </si>
-  <si>
-    <t>Bus_沙龙干20杆开关</t>
-  </si>
-  <si>
-    <t>Bus_沙龙干33塔开关</t>
-  </si>
-  <si>
-    <t>Bus_沙龙干44塔开关</t>
-  </si>
-  <si>
-    <t>Bus_清河东路电缆分接箱</t>
-  </si>
-  <si>
-    <t>Bus_清流1号支16杆</t>
-  </si>
-  <si>
-    <t>Bus_清流1号电缆分接箱</t>
-  </si>
-  <si>
-    <t>Bus_清流干08塔</t>
-  </si>
-  <si>
-    <t>Bus_清流干19杆开关</t>
-  </si>
-  <si>
-    <t>Bus_清流村会堂2号高低压开关</t>
-  </si>
-  <si>
-    <t>Bus_清流村经济合作社开关房</t>
-  </si>
-  <si>
-    <t>Bus_清流观龙18队</t>
-  </si>
-  <si>
-    <t>Bus_石楼F12</t>
-  </si>
-  <si>
-    <t>Bus_石楼F22</t>
-  </si>
-  <si>
-    <t>Bus_草河F7</t>
-  </si>
-  <si>
-    <t>Bus_草河F27</t>
-  </si>
-  <si>
-    <t>Bus_草河村22号高低开关房</t>
-  </si>
-  <si>
-    <t>Bus_草河村32号欧式箱变</t>
-  </si>
-  <si>
-    <t>Bus_裕丰13塔</t>
-  </si>
-  <si>
-    <t>Bus_裕丰F19</t>
-  </si>
-  <si>
-    <t>Bus_观龙大站2号高低压开关房</t>
-  </si>
-  <si>
-    <t>Bus_观龙大站支01杆</t>
-  </si>
-  <si>
-    <t>Bus_观龙大站高低压开关房</t>
+    <t>Bus_33</t>
+  </si>
+  <si>
+    <t>Bus_56</t>
+  </si>
+  <si>
+    <t>Bus_38</t>
+  </si>
+  <si>
+    <t>Bus_37</t>
+  </si>
+  <si>
+    <t>Bus_54</t>
+  </si>
+  <si>
+    <t>Bus_17</t>
+  </si>
+  <si>
+    <t>Bus_18</t>
+  </si>
+  <si>
+    <t>Bus_6</t>
+  </si>
+  <si>
+    <t>Bus_42</t>
+  </si>
+  <si>
+    <t>Bus_48</t>
+  </si>
+  <si>
+    <t>Bus_67</t>
+  </si>
+  <si>
+    <t>Bus_46</t>
+  </si>
+  <si>
+    <t>Bus_41</t>
+  </si>
+  <si>
+    <t>Bus_13</t>
+  </si>
+  <si>
+    <t>Bus_40</t>
+  </si>
+  <si>
+    <t>Bus_31</t>
+  </si>
+  <si>
+    <t>Bus_62</t>
+  </si>
+  <si>
+    <t>Bus_63</t>
+  </si>
+  <si>
+    <t>Bus_66</t>
+  </si>
+  <si>
+    <t>Bus_68</t>
+  </si>
+  <si>
+    <t>Bus_58</t>
+  </si>
+  <si>
+    <t>Bus_57</t>
+  </si>
+  <si>
+    <t>Bus_55</t>
+  </si>
+  <si>
+    <t>Bus_52</t>
+  </si>
+  <si>
+    <t>Bus_51</t>
+  </si>
+  <si>
+    <t>Bus_47</t>
+  </si>
+  <si>
+    <t>Bus_45</t>
+  </si>
+  <si>
+    <t>Bus_15</t>
+  </si>
+  <si>
+    <t>Bus_19</t>
+  </si>
+  <si>
+    <t>Bus_24</t>
+  </si>
+  <si>
+    <t>Bus_23</t>
+  </si>
+  <si>
+    <t>Bus_25</t>
+  </si>
+  <si>
+    <t>Bus_27</t>
+  </si>
+  <si>
+    <t>Bus_29</t>
+  </si>
+  <si>
+    <t>Bus_32</t>
+  </si>
+  <si>
+    <t>Bus_28</t>
+  </si>
+  <si>
+    <t>Bus_22</t>
+  </si>
+  <si>
+    <t>Bus_21</t>
+  </si>
+  <si>
+    <t>Bus_30</t>
+  </si>
+  <si>
+    <t>Bus_20</t>
+  </si>
+  <si>
+    <t>Bus_26</t>
+  </si>
+  <si>
+    <t>Bus_16</t>
+  </si>
+  <si>
+    <t>Bus_70</t>
+  </si>
+  <si>
+    <t>Bus_2</t>
+  </si>
+  <si>
+    <t>Bus_9</t>
+  </si>
+  <si>
+    <t>Bus_10</t>
+  </si>
+  <si>
+    <t>Bus_4</t>
+  </si>
+  <si>
+    <t>Bus_5</t>
+  </si>
+  <si>
+    <t>Bus_11</t>
+  </si>
+  <si>
+    <t>Bus_12</t>
+  </si>
+  <si>
+    <t>Bus_14</t>
+  </si>
+  <si>
+    <t>Bus_59</t>
+  </si>
+  <si>
+    <t>Bus_50</t>
+  </si>
+  <si>
+    <t>Bus_49</t>
+  </si>
+  <si>
+    <t>Bus_44</t>
+  </si>
+  <si>
+    <t>Bus_43</t>
+  </si>
+  <si>
+    <t>Bus_69</t>
+  </si>
+  <si>
+    <t>Bus_64</t>
+  </si>
+  <si>
+    <t>Bus_39</t>
+  </si>
+  <si>
+    <t>Bus_60</t>
+  </si>
+  <si>
+    <t>Bus_65</t>
+  </si>
+  <si>
+    <t>Bus_8</t>
+  </si>
+  <si>
+    <t>Bus_1</t>
+  </si>
+  <si>
+    <t>Bus_3</t>
+  </si>
+  <si>
+    <t>Bus_7</t>
+  </si>
+  <si>
+    <t>Bus_53</t>
+  </si>
+  <si>
+    <t>Bus_61</t>
+  </si>
+  <si>
+    <t>Bus_35</t>
+  </si>
+  <si>
+    <t>Bus_36</t>
+  </si>
+  <si>
+    <t>Bus_34</t>
   </si>
 </sst>
 </file>

--- a/analysis_results/voltage_comparison_results.xlsx
+++ b/analysis_results/voltage_comparison_results.xlsx
@@ -689,16 +689,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.9807462852372173</v>
+        <v>0.9807462852372174</v>
       </c>
       <c r="D3">
         <v>0.9810398864746094</v>
       </c>
       <c r="E3">
-        <v>0.00029360123739208266</v>
+        <v>0.00029360123739197164</v>
       </c>
       <c r="F3">
-        <v>0.02992755355209316</v>
+        <v>0.029927553552081845</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1.0007688747643622</v>
+        <v>1.0007688747643624</v>
       </c>
       <c r="D4">
         <v>1.001056823730469</v>
       </c>
       <c r="E4">
-        <v>0.0002879489661067325</v>
+        <v>0.00028794896610651044</v>
       </c>
       <c r="F4">
-        <v>0.02876449760700715</v>
+        <v>0.028764497606984966</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.9070745426436617</v>
+        <v>0.9070745359311609</v>
       </c>
       <c r="D2">
         <v>0.9070735168457031</v>
       </c>
       <c r="E2">
-        <v>1.0257979585759358e-6</v>
+        <v>1.0190854577984965e-6</v>
       </c>
       <c r="F2">
-        <v>0.00011308873421231502</v>
+        <v>0.00011234871693115996</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>-1.1915777847883038</v>
+        <v>-1.1915776304554764</v>
       </c>
       <c r="I2">
         <v>-1.191624760627747</v>
       </c>
       <c r="J2">
-        <v>4.6975839443241796e-5</v>
+        <v>4.713017227064853e-5</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -818,28 +818,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.9507993461557318</v>
+        <v>0.9507993434586752</v>
       </c>
       <c r="D3">
         <v>0.950798568725586</v>
       </c>
       <c r="E3">
-        <v>7.774301458152166e-7</v>
+        <v>7.747330892371451e-7</v>
       </c>
       <c r="F3">
-        <v>8.176601978453273e-5</v>
+        <v>8.148235753820788e-5</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-1.030819608118785</v>
+        <v>-1.0308196263448908</v>
       </c>
       <c r="I3">
         <v>-1.030968189239502</v>
       </c>
       <c r="J3">
-        <v>0.00014858112071691743</v>
+        <v>0.00014856289461118166</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -853,28 +853,28 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.9036353175860105</v>
+        <v>0.9036353105623853</v>
       </c>
       <c r="D4">
         <v>0.9036344146728515</v>
       </c>
       <c r="E4">
-        <v>9.029131589066708e-7</v>
+        <v>8.958895337807249e-7</v>
       </c>
       <c r="F4">
-        <v>9.992018279135133e-5</v>
+        <v>9.914291877706642e-5</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-1.430108269626149</v>
+        <v>-1.430108157801551</v>
       </c>
       <c r="I4">
         <v>-1.430169701576233</v>
       </c>
       <c r="J4">
-        <v>6.143195008401214e-5</v>
+        <v>6.154377468181593e-5</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -888,28 +888,28 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.9037595101619258</v>
+        <v>0.9037595031349792</v>
       </c>
       <c r="D5">
         <v>0.903758544921875</v>
       </c>
       <c r="E5">
-        <v>9.652400507764725e-7</v>
+        <v>9.582131041963038e-7</v>
       </c>
       <c r="F5">
-        <v>0.00010680286855378083</v>
+        <v>0.00010602534378019476</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-1.4265177264115365</v>
+        <v>-1.4265176140475397</v>
       </c>
       <c r="I5">
         <v>-1.426579117774963</v>
       </c>
       <c r="J5">
-        <v>6.139136342642182e-5</v>
+        <v>6.150372742319554e-5</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -923,28 +923,28 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.9321128876893305</v>
+        <v>0.9321128837626504</v>
       </c>
       <c r="D6">
         <v>0.9321121215820313</v>
       </c>
       <c r="E6">
-        <v>7.661072992659612e-7</v>
+        <v>7.62180619173769e-7</v>
       </c>
       <c r="F6">
-        <v>8.219046631060674e-5</v>
+        <v>8.176919938345557e-5</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-1.4090063232899834</v>
+        <v>-1.4090063687748982</v>
       </c>
       <c r="I6">
         <v>-1.409143805503845</v>
       </c>
       <c r="J6">
-        <v>0.00013748221386156168</v>
+        <v>0.00013743672894683812</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -958,28 +958,28 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.9289094842384549</v>
+        <v>0.9289094798119771</v>
       </c>
       <c r="D7">
         <v>0.9289085133870443</v>
       </c>
       <c r="E7">
-        <v>9.708514105977173e-7</v>
+        <v>9.664249328578123e-7</v>
       </c>
       <c r="F7">
-        <v>0.00010451528827717792</v>
+        <v>0.00010403876365972504</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0001683987522384544</v>
+        <v>0.0001687456816657231</v>
       </c>
       <c r="I7">
         <v>0.0001823189377319068</v>
       </c>
       <c r="J7">
-        <v>1.3920185493452388e-5</v>
+        <v>1.3573256066183706e-5</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -993,28 +993,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.9254146263476033</v>
+        <v>0.9254146214906754</v>
       </c>
       <c r="D8">
         <v>0.925413589477539</v>
       </c>
       <c r="E8">
-        <v>1.0368700642526818e-6</v>
+        <v>1.0320131363927842e-6</v>
       </c>
       <c r="F8">
-        <v>0.00011204396348210833</v>
+        <v>0.00011151912486777163</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-0.16545824677345666</v>
+        <v>-0.16545791706257987</v>
       </c>
       <c r="I8">
         <v>-0.1654517948627472</v>
       </c>
       <c r="J8">
-        <v>6.4519107094707095e-6</v>
+        <v>6.122199832675479e-6</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1028,28 +1028,28 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.9408132447373319</v>
+        <v>0.9408132423167159</v>
       </c>
       <c r="D9">
         <v>0.9408122253417969</v>
       </c>
       <c r="E9">
-        <v>1.0193955349846462e-6</v>
+        <v>1.016974919054725e-6</v>
       </c>
       <c r="F9">
-        <v>0.0001083527092363516</v>
+        <v>0.0001080954192198404</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.7100518432505987</v>
+        <v>0.710052146564453</v>
       </c>
       <c r="I9">
         <v>0.7100905179977417</v>
       </c>
       <c r="J9">
-        <v>3.867474714303043e-5</v>
+        <v>3.8371433288664214e-5</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1063,28 +1063,28 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.9015808743447453</v>
+        <v>0.9015808672918212</v>
       </c>
       <c r="D10">
         <v>0.9015799713134766</v>
       </c>
       <c r="E10">
-        <v>9.030312687619002e-7</v>
+        <v>8.959783446282898e-7</v>
       </c>
       <c r="F10">
-        <v>0.00010016097268069401</v>
+        <v>9.937868776332442e-5</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>-1.7480622091246703</v>
+        <v>-1.7480622000650352</v>
       </c>
       <c r="I10">
         <v>-1.748149871826172</v>
       </c>
       <c r="J10">
-        <v>8.766270150184496e-5</v>
+        <v>8.767176113688713e-5</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1098,28 +1098,28 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.9050236118828808</v>
+        <v>0.9050236058542283</v>
       </c>
       <c r="D11">
         <v>0.9050227355957031</v>
       </c>
       <c r="E11">
-        <v>8.762871777090453e-7</v>
+        <v>8.702585251318951e-7</v>
       </c>
       <c r="F11">
-        <v>9.682487999953465e-5</v>
+        <v>9.615874727821886e-5</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>-1.9244927845428963</v>
+        <v>-1.9244928490152144</v>
       </c>
       <c r="I11">
         <v>-1.924607753753662</v>
       </c>
       <c r="J11">
-        <v>0.00011496921076581401</v>
+        <v>0.00011490473844766314</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1133,28 +1133,28 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.8966006772180323</v>
+        <v>0.8966006702160461</v>
       </c>
       <c r="D12">
         <v>0.8965998077392578</v>
       </c>
       <c r="E12">
-        <v>8.694787744234489e-7</v>
+        <v>8.624767882103868e-7</v>
       </c>
       <c r="F12">
-        <v>9.69751238978967e-5</v>
+        <v>9.619417501160178e-5</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>-2.068616390321577</v>
+        <v>-2.068616465738659</v>
       </c>
       <c r="I12">
         <v>-2.068722248077393</v>
       </c>
       <c r="J12">
-        <v>0.0001058577558161744</v>
+        <v>0.00010578233873381748</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1168,28 +1168,28 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0.9029546385596112</v>
+        <v>0.9029546320333222</v>
       </c>
       <c r="D13">
         <v>0.9029537200927734</v>
       </c>
       <c r="E13">
-        <v>9.184668378070526e-7</v>
+        <v>9.119405487423293e-7</v>
       </c>
       <c r="F13">
-        <v>0.00010171804128706455</v>
+        <v>0.0001009952701284217</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-1.922739209620614</v>
+        <v>-1.9227392768467</v>
       </c>
       <c r="I13">
         <v>-1.922848224639893</v>
       </c>
       <c r="J13">
-        <v>0.00010901501927906843</v>
+        <v>0.00010894779319303716</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1203,28 +1203,28 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>0.9017865720354802</v>
+        <v>0.9017865648985433</v>
       </c>
       <c r="D14">
         <v>0.9017856597900391</v>
       </c>
       <c r="E14">
-        <v>9.122454410759318e-7</v>
+        <v>9.05108504145602e-7</v>
       </c>
       <c r="F14">
-        <v>0.00010115989660872718</v>
+        <v>0.00010036847385179496</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-1.6778821501404169</v>
+        <v>-1.6778821120910021</v>
       </c>
       <c r="I14">
         <v>-1.677963256835938</v>
       </c>
       <c r="J14">
-        <v>8.110669552108263e-5</v>
+        <v>8.11447449358127e-5</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1238,28 +1238,28 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0.936937909147193</v>
+        <v>0.9369379058958583</v>
       </c>
       <c r="D15">
         <v>0.9369368743896485</v>
       </c>
       <c r="E15">
-        <v>1.0347575445379675e-6</v>
+        <v>1.031506209892008e-6</v>
       </c>
       <c r="F15">
-        <v>0.00011044047606857641</v>
+        <v>0.00011009345859762058</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.3635947270163363</v>
+        <v>0.3635950673526478</v>
       </c>
       <c r="I15">
         <v>0.3636243045330048</v>
       </c>
       <c r="J15">
-        <v>2.9577516668488624e-5</v>
+        <v>2.9237180357022385e-5</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1273,28 +1273,28 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>0.9022593117339925</v>
+        <v>0.9022593046440293</v>
       </c>
       <c r="D16">
         <v>0.90225830078125</v>
       </c>
       <c r="E16">
-        <v>1.0109527425194997e-6</v>
+        <v>1.0038627792363641e-6</v>
       </c>
       <c r="F16">
-        <v>0.0001120469317538152</v>
+        <v>0.00011126112980807564</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-1.588192790085087</v>
+        <v>-1.5881927262311066</v>
       </c>
       <c r="I16">
         <v>-1.588266253471375</v>
       </c>
       <c r="J16">
-        <v>7.346338628799742e-5</v>
+        <v>7.352724026832291e-5</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1308,28 +1308,28 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>0.9104295183535213</v>
+        <v>0.9104295118130358</v>
       </c>
       <c r="D17">
         <v>0.9104285430908203</v>
       </c>
       <c r="E17">
-        <v>9.752627009307346e-7</v>
+        <v>9.687222154441955e-7</v>
       </c>
       <c r="F17">
-        <v>0.00010712127913079353</v>
+        <v>0.000106402882773806</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-0.9970482532402872</v>
+        <v>-0.9970480620883087</v>
       </c>
       <c r="I17">
         <v>-0.9970849752426147</v>
       </c>
       <c r="J17">
-        <v>3.67220023275161e-5</v>
+        <v>3.691315430609521e-5</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1343,28 +1343,28 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>0.8997556673587745</v>
+        <v>0.8997556604160933</v>
       </c>
       <c r="D18">
         <v>0.8997547912597657</v>
       </c>
       <c r="E18">
-        <v>8.760990088951814e-7</v>
+        <v>8.691563276874703e-7</v>
       </c>
       <c r="F18">
-        <v>9.737086341808048e-5</v>
+        <v>9.659924416412901e-5</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-1.9770062832448134</v>
+        <v>-1.977006358597175</v>
       </c>
       <c r="I18">
         <v>-1.97711181640625</v>
       </c>
       <c r="J18">
-        <v>0.00010553316143657732</v>
+        <v>0.00010545780907489366</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1378,28 +1378,28 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>0.8985841815119054</v>
+        <v>0.8985841745345051</v>
       </c>
       <c r="D19">
         <v>0.8985832977294922</v>
       </c>
       <c r="E19">
-        <v>8.837824132523764e-7</v>
+        <v>8.768050129281946e-7</v>
       </c>
       <c r="F19">
-        <v>9.835286450187599e-5</v>
+        <v>9.757637551729192e-5</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-2.010958161285718</v>
+        <v>-2.010958236746494</v>
       </c>
       <c r="I19">
         <v>-2.011063814163208</v>
       </c>
       <c r="J19">
-        <v>0.00010565287748987018</v>
+        <v>0.00010557741671401999</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1413,28 +1413,28 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>0.8975214768773264</v>
+        <v>0.8975214698781804</v>
       </c>
       <c r="D20">
         <v>0.8975205993652344</v>
       </c>
       <c r="E20">
-        <v>8.775120919901624e-7</v>
+        <v>8.705129459496419e-7</v>
       </c>
       <c r="F20">
-        <v>9.777069101375245e-5</v>
+        <v>9.699085977138647e-5</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-2.041814805237099</v>
+        <v>-2.0418148806230016</v>
       </c>
       <c r="I20">
         <v>-2.04192042350769</v>
       </c>
       <c r="J20">
-        <v>0.00010561827059119011</v>
+        <v>0.00010554288468833661</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1448,28 +1448,28 @@
         <v>33</v>
       </c>
       <c r="C21">
-        <v>0.8960207330040981</v>
+        <v>0.8960207259975717</v>
       </c>
       <c r="D21">
         <v>0.8960198211669922</v>
       </c>
       <c r="E21">
-        <v>9.118371059324559e-7</v>
+        <v>9.048305794623346e-7</v>
       </c>
       <c r="F21">
-        <v>0.0001017652829091284</v>
+        <v>0.00010098332180686216</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>-2.085521504271548</v>
+        <v>-2.08552157987575</v>
       </c>
       <c r="I21">
         <v>-2.085627317428589</v>
       </c>
       <c r="J21">
-        <v>0.00010581315704083494</v>
+        <v>0.00010573755283882491</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1483,28 +1483,28 @@
         <v>34</v>
       </c>
       <c r="C22">
-        <v>0.9743034573142084</v>
+        <v>0.9743034559787728</v>
       </c>
       <c r="D22">
         <v>0.974302749633789</v>
       </c>
       <c r="E22">
-        <v>7.076804193761888e-7</v>
+        <v>7.063449837252378e-7</v>
       </c>
       <c r="F22">
-        <v>7.263455015827313e-5</v>
+        <v>7.249748437954543e-5</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-0.5275937781306261</v>
+        <v>-0.5275937881474931</v>
       </c>
       <c r="I22">
         <v>-0.527751624584198</v>
       </c>
       <c r="J22">
-        <v>0.00015784645357186378</v>
+        <v>0.00015783643670486125</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1518,28 +1518,28 @@
         <v>35</v>
       </c>
       <c r="C23">
-        <v>0.9612576197506842</v>
+        <v>0.961257617678125</v>
       </c>
       <c r="D23">
         <v>0.9612568664550781</v>
       </c>
       <c r="E23">
-        <v>7.532956061151452e-7</v>
+        <v>7.512230468798009e-7</v>
       </c>
       <c r="F23">
-        <v>7.836569312562081e-5</v>
+        <v>7.81500838220444e-5</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>-0.8048097303988346</v>
+        <v>-0.8048097454817424</v>
       </c>
       <c r="I23">
         <v>-0.8049625158309937</v>
       </c>
       <c r="J23">
-        <v>0.0001527854321590194</v>
+        <v>0.0001527703492512078</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>36</v>
       </c>
       <c r="C24">
-        <v>0.9410883387420936</v>
+        <v>0.9410883353944905</v>
       </c>
       <c r="D24">
         <v>0.9410875701904297</v>
       </c>
       <c r="E24">
-        <v>7.685516639766021e-7</v>
+        <v>7.652040608929767e-7</v>
       </c>
       <c r="F24">
-        <v>8.166632822714737e-5</v>
+        <v>8.131061179972201e-5</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>-1.2270866113886671</v>
+        <v>-1.227086646890134</v>
       </c>
       <c r="I24">
         <v>-1.227229595184326</v>
       </c>
       <c r="J24">
-        <v>0.00014298379565880204</v>
+        <v>0.00014294829419192467</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1588,28 +1588,28 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>0.9171809853279584</v>
+        <v>0.9171809804218722</v>
       </c>
       <c r="D25">
         <v>0.91718017578125</v>
       </c>
       <c r="E25">
-        <v>8.095467084467955e-7</v>
+        <v>8.046406222428359e-7</v>
       </c>
       <c r="F25">
-        <v>8.826474119517763e-5</v>
+        <v>8.772983144314548e-5</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-1.714182994616445</v>
+        <v>-1.7141830532309204</v>
       </c>
       <c r="I25">
         <v>-1.714310646057129</v>
       </c>
       <c r="J25">
-        <v>0.00012765144068382916</v>
+        <v>0.00012759282620855572</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1623,28 +1623,28 @@
         <v>38</v>
       </c>
       <c r="C26">
-        <v>0.9120075808172915</v>
+        <v>0.9120075755286933</v>
       </c>
       <c r="D26">
         <v>0.9120067596435547</v>
       </c>
       <c r="E26">
-        <v>8.211737367869176e-7</v>
+        <v>8.158851385609012e-7</v>
       </c>
       <c r="F26">
-        <v>9.004031254196647e-5</v>
+        <v>8.946042668365514e-5</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>-1.8153530016289325</v>
+        <v>-1.8153530630749832</v>
       </c>
       <c r="I26">
         <v>-1.815476536750793</v>
       </c>
       <c r="J26">
-        <v>0.0001235351218604741</v>
+        <v>0.00012347367580978208</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1658,28 +1658,28 @@
         <v>39</v>
       </c>
       <c r="C27">
-        <v>0.9032593710117286</v>
+        <v>0.9032593645585312</v>
       </c>
       <c r="D27">
         <v>0.9032585144042968</v>
       </c>
       <c r="E27">
-        <v>8.566074317650774e-7</v>
+        <v>8.501542343442026e-7</v>
       </c>
       <c r="F27">
-        <v>9.483524573582502e-5</v>
+        <v>9.412081046419841e-5</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-1.9229979925887</v>
+        <v>-1.9229980594283251</v>
       </c>
       <c r="I27">
         <v>-1.923107981681824</v>
       </c>
       <c r="J27">
-        <v>0.00010998909312398553</v>
+        <v>0.00010992225349881757</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1693,28 +1693,28 @@
         <v>40</v>
       </c>
       <c r="C28">
-        <v>0.9017456672123318</v>
+        <v>0.9017456604559106</v>
       </c>
       <c r="D28">
         <v>0.9017447662353516</v>
       </c>
       <c r="E28">
-        <v>9.009769802448275e-7</v>
+        <v>8.94220559044534e-7</v>
       </c>
       <c r="F28">
-        <v>9.99148555090894e-5</v>
+        <v>9.916559458146565e-5</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-1.9194996444007473</v>
+        <v>-1.9194997085842649</v>
       </c>
       <c r="I28">
         <v>-1.919605016708374</v>
       </c>
       <c r="J28">
-        <v>0.00010537230762674987</v>
+        <v>0.00010530812410913803</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1728,28 +1728,28 @@
         <v>41</v>
       </c>
       <c r="C29">
-        <v>0.9349305218404551</v>
+        <v>0.9349305181844982</v>
       </c>
       <c r="D29">
         <v>0.9349295043945313</v>
       </c>
       <c r="E29">
-        <v>1.0174459238454503e-6</v>
+        <v>1.0137899669748762e-6</v>
       </c>
       <c r="F29">
-        <v>0.00010882595094743077</v>
+        <v>0.00010843491003435768</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.26740498149312886</v>
+        <v>0.2674053303734968</v>
       </c>
       <c r="I29">
         <v>0.2674300074577332</v>
       </c>
       <c r="J29">
-        <v>2.502596460435269e-5</v>
+        <v>2.4677084236424118e-5</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1763,28 +1763,28 @@
         <v>42</v>
       </c>
       <c r="C30">
-        <v>0.9235930294840756</v>
+        <v>0.9235930243509942</v>
       </c>
       <c r="D30">
         <v>0.9235919952392578</v>
       </c>
       <c r="E30">
-        <v>1.0342448177880215e-6</v>
+        <v>1.0291117363836477e-6</v>
       </c>
       <c r="F30">
-        <v>0.00011198070393844187</v>
+        <v>0.00011142493023849291</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-0.26454400815704654</v>
+        <v>-0.2645436893858682</v>
       </c>
       <c r="I30">
         <v>-0.2645426988601685</v>
       </c>
       <c r="J30">
-        <v>1.3092968780270553e-6</v>
+        <v>9.905256996844969e-7</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>43</v>
       </c>
       <c r="C31">
-        <v>0.9201231498581918</v>
+        <v>0.9201231442710068</v>
       </c>
       <c r="D31">
         <v>0.9201221466064453</v>
       </c>
       <c r="E31">
-        <v>1.003251746456435e-6</v>
+        <v>9.976645615195068e-7</v>
       </c>
       <c r="F31">
-        <v>0.00010903462656089571</v>
+        <v>0.00010842740447005325</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>-0.4547958303469545</v>
+        <v>-0.45479553959436714</v>
       </c>
       <c r="I31">
         <v>-0.454804390668869</v>
       </c>
       <c r="J31">
-        <v>8.560321914541369e-6</v>
+        <v>8.851074501881051e-6</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -1833,28 +1833,28 @@
         <v>44</v>
       </c>
       <c r="C32">
-        <v>0.9184744118591389</v>
+        <v>0.9184744060783134</v>
       </c>
       <c r="D32">
         <v>0.9184734344482421</v>
       </c>
       <c r="E32">
-        <v>9.774108967741668e-7</v>
+        <v>9.716300712891979e-7</v>
       </c>
       <c r="F32">
-        <v>0.00010641689352303699</v>
+        <v>0.00010578749856525667</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>-0.5458966920871742</v>
+        <v>-0.5458964158536966</v>
       </c>
       <c r="I32">
         <v>-0.5459099411964417</v>
       </c>
       <c r="J32">
-        <v>1.324910926747691e-5</v>
+        <v>1.3525342745013269e-5</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1868,28 +1868,28 @@
         <v>45</v>
       </c>
       <c r="C33">
-        <v>0.9160056782292174</v>
+        <v>0.9160056721483917</v>
       </c>
       <c r="D33">
         <v>0.9160046895345052</v>
       </c>
       <c r="E33">
-        <v>9.886947122117462e-7</v>
+        <v>9.826138864799105e-7</v>
       </c>
       <c r="F33">
-        <v>0.00010793555136864862</v>
+        <v>0.00010727170916332916</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>-0.6831623061114138</v>
+        <v>-0.683162051226703</v>
       </c>
       <c r="I33">
         <v>-0.6831827163696289</v>
       </c>
       <c r="J33">
-        <v>2.0410258215086685e-5</v>
+        <v>2.066514292586863e-5</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1903,28 +1903,28 @@
         <v>46</v>
       </c>
       <c r="C34">
-        <v>0.913542230413846</v>
+        <v>0.913542224092202</v>
       </c>
       <c r="D34">
         <v>0.9135411834716797</v>
       </c>
       <c r="E34">
-        <v>1.0469421662939737e-6</v>
+        <v>1.0406205223079112e-6</v>
       </c>
       <c r="F34">
-        <v>0.00011460262385931391</v>
+        <v>0.0001139106305370163</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>-0.8211690060490519</v>
+        <v>-0.8211687788679831</v>
       </c>
       <c r="I34">
         <v>-0.8211965560913086</v>
       </c>
       <c r="J34">
-        <v>2.755004225674096e-5</v>
+        <v>2.777722332547583e-5</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -1938,28 +1938,28 @@
         <v>47</v>
       </c>
       <c r="C35">
-        <v>0.9117390862734581</v>
+        <v>0.9117390798092835</v>
       </c>
       <c r="D35">
         <v>0.9117380523681641</v>
       </c>
       <c r="E35">
-        <v>1.0339052940455673e-6</v>
+        <v>1.0274411194055588e-6</v>
       </c>
       <c r="F35">
-        <v>0.00011339937949941696</v>
+        <v>0.00011269038478067968</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>-0.9228474725759621</v>
+        <v>-0.9228472660788135</v>
       </c>
       <c r="I35">
         <v>-0.9228803515434265</v>
       </c>
       <c r="J35">
-        <v>3.287896746440033e-5</v>
+        <v>3.308546461300299e-5</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -1973,28 +1973,28 @@
         <v>48</v>
       </c>
       <c r="C36">
-        <v>0.910233215078384</v>
+        <v>0.9102332085286414</v>
       </c>
       <c r="D36">
         <v>0.9102322387695313</v>
       </c>
       <c r="E36">
-        <v>9.763088526515418e-7</v>
+        <v>9.697591101254233e-7</v>
       </c>
       <c r="F36">
-        <v>0.00010725931372979428</v>
+        <v>0.00010653974544302689</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>-1.0081967807857486</v>
+        <v>-1.0081965917780673</v>
       </c>
       <c r="I36">
         <v>-1.008234024047852</v>
       </c>
       <c r="J36">
-        <v>3.7243262103414665e-5</v>
+        <v>3.743226978469849e-5</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -2008,28 +2008,28 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>0.9135422304000923</v>
+        <v>0.9135422240787147</v>
       </c>
       <c r="D37">
         <v>0.9135411834716797</v>
       </c>
       <c r="E37">
-        <v>1.0469284126291e-6</v>
+        <v>1.0406070349855412e-6</v>
       </c>
       <c r="F37">
-        <v>0.0001146011183262167</v>
+        <v>0.00011390915415887221</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>-0.8211690073428519</v>
+        <v>-0.8211687782884358</v>
       </c>
       <c r="I37">
         <v>-0.8211965560913086</v>
       </c>
       <c r="J37">
-        <v>2.7548748456673877e-5</v>
+        <v>2.777780287277487e-5</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -2043,28 +2043,28 @@
         <v>50</v>
       </c>
       <c r="C38">
-        <v>0.9184744118591389</v>
+        <v>0.9184744060783134</v>
       </c>
       <c r="D38">
         <v>0.9184734344482421</v>
       </c>
       <c r="E38">
-        <v>9.774108967741668e-7</v>
+        <v>9.716300712891979e-7</v>
       </c>
       <c r="F38">
-        <v>0.00010641689352303699</v>
+        <v>0.00010578749856525667</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>-0.5458966920871743</v>
+        <v>-0.5458964158536938</v>
       </c>
       <c r="I38">
         <v>-0.5459099411964417</v>
       </c>
       <c r="J38">
-        <v>1.3249109267365888e-5</v>
+        <v>1.3525342747899849e-5</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -2078,28 +2078,28 @@
         <v>51</v>
       </c>
       <c r="C39">
-        <v>0.9255280728030157</v>
+        <v>0.9255280679481144</v>
       </c>
       <c r="D39">
         <v>0.9255271148681641</v>
       </c>
       <c r="E39">
-        <v>9.579348516641772e-7</v>
+        <v>9.530799502943665e-7</v>
       </c>
       <c r="F39">
-        <v>0.00010350154374468321</v>
+        <v>0.00010297698846242092</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>-0.1614445210983656</v>
+        <v>-0.16144418960544243</v>
       </c>
       <c r="I39">
         <v>-0.161438062787056</v>
       </c>
       <c r="J39">
-        <v>6.458311309603948e-6</v>
+        <v>6.126818386437138e-6</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -2113,28 +2113,28 @@
         <v>52</v>
       </c>
       <c r="C40">
-        <v>0.9117390862602917</v>
+        <v>0.9117390797862825</v>
       </c>
       <c r="D40">
         <v>0.9117380523681641</v>
       </c>
       <c r="E40">
-        <v>1.0338921275776514e-6</v>
+        <v>1.0274181184710685e-6</v>
       </c>
       <c r="F40">
-        <v>0.00011339793539297851</v>
+        <v>0.00011268786202379455</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>-0.9228474738169775</v>
+        <v>-0.9228472655257928</v>
       </c>
       <c r="I40">
         <v>-0.9228803515434265</v>
       </c>
       <c r="J40">
-        <v>3.287772644899878e-5</v>
+        <v>3.30860176337433e-5</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -2148,28 +2148,28 @@
         <v>53</v>
       </c>
       <c r="C41">
-        <v>0.923593029478253</v>
+        <v>0.9235930243441999</v>
       </c>
       <c r="D41">
         <v>0.9235919952392578</v>
       </c>
       <c r="E41">
-        <v>1.0342389951123465e-6</v>
+        <v>1.0291049420407816e-6</v>
       </c>
       <c r="F41">
-        <v>0.00011198007350035829</v>
+        <v>0.00011142419459516758</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>-0.26454401211946216</v>
+        <v>-0.26454368834541997</v>
       </c>
       <c r="I41">
         <v>-0.2645426988601685</v>
       </c>
       <c r="J41">
-        <v>1.3132592936448972e-6</v>
+        <v>9.89485251456923e-7</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -2183,28 +2183,28 @@
         <v>54</v>
       </c>
       <c r="C42">
-        <v>0.9160056782138726</v>
+        <v>0.9160056721365957</v>
       </c>
       <c r="D42">
         <v>0.9160046895345052</v>
       </c>
       <c r="E42">
-        <v>9.886793673752337e-7</v>
+        <v>9.826020904712962e-7</v>
       </c>
       <c r="F42">
-        <v>0.00010793387617673225</v>
+        <v>0.00010727042139605578</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>-0.6831623075510209</v>
+        <v>-0.683162050352303</v>
       </c>
       <c r="I42">
         <v>-0.6831827163696289</v>
       </c>
       <c r="J42">
-        <v>2.040881860798649e-5</v>
+        <v>2.0666017325865482e-5</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -2218,28 +2218,28 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>0.9316666092955259</v>
+        <v>0.9316666051656171</v>
       </c>
       <c r="D43">
         <v>0.9316656239827474</v>
       </c>
       <c r="E43">
-        <v>9.853127784786864e-7</v>
+        <v>9.811828696193459e-7</v>
       </c>
       <c r="F43">
-        <v>0.00010575819834015173</v>
+        <v>0.00010531491603445867</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.12308056363406117</v>
+        <v>0.1230809251074533</v>
       </c>
       <c r="I43">
         <v>0.123099610209465</v>
       </c>
       <c r="J43">
-        <v>1.904657540383048e-5</v>
+        <v>1.8685102011695154e-5</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -2253,28 +2253,28 @@
         <v>56</v>
       </c>
       <c r="C44">
-        <v>0.9316666093432953</v>
+        <v>0.9316666051395257</v>
       </c>
       <c r="D44">
         <v>0.9316656239827474</v>
       </c>
       <c r="E44">
-        <v>9.853605478227223e-7</v>
+        <v>9.811567782680441e-7</v>
       </c>
       <c r="F44">
-        <v>0.00010576332564578654</v>
+        <v>0.00010531211552850138</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.12308054619550023</v>
+        <v>0.12308092616416419</v>
       </c>
       <c r="I44">
         <v>0.123099610209465</v>
       </c>
       <c r="J44">
-        <v>1.9064013964772974e-5</v>
+        <v>1.8684045300809693e-5</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2288,28 +2288,28 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>0.98565192034981</v>
+        <v>0.9856519198196756</v>
       </c>
       <c r="D45">
         <v>0.9856512451171875</v>
       </c>
       <c r="E45">
-        <v>6.75232622482369e-7</v>
+        <v>6.747024881015307e-7</v>
       </c>
       <c r="F45">
-        <v>6.850624151568828e-5</v>
+        <v>6.84524563271173e-5</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.1978501567478068</v>
+        <v>0.19785022047733153</v>
       </c>
       <c r="I45">
         <v>0.1979097276926041</v>
       </c>
       <c r="J45">
-        <v>5.957094479730474e-5</v>
+        <v>5.9507215272563974e-5</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -2323,28 +2323,28 @@
         <v>58</v>
       </c>
       <c r="C46">
-        <v>0.9408233009090365</v>
+        <v>0.9408232981447519</v>
       </c>
       <c r="D46">
         <v>0.9408222961425782</v>
       </c>
       <c r="E46">
-        <v>1.0047664583678895e-6</v>
+        <v>1.0020021736778517e-6</v>
       </c>
       <c r="F46">
-        <v>0.00010679662487671539</v>
+        <v>0.0001065028090624674</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.5191805306334637</v>
+        <v>0.5191808549098306</v>
       </c>
       <c r="I46">
         <v>0.5192156434059143</v>
       </c>
       <c r="J46">
-        <v>3.511277245060729e-5</v>
+        <v>3.4788496083737463e-5</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -2358,28 +2358,28 @@
         <v>59</v>
       </c>
       <c r="C47">
-        <v>0.9380078485591001</v>
+        <v>0.9380078453802405</v>
       </c>
       <c r="D47">
         <v>0.9380068969726563</v>
       </c>
       <c r="E47">
-        <v>9.51586443864727e-7</v>
+        <v>9.484075842447481e-7</v>
       </c>
       <c r="F47">
-        <v>0.00010144770224354403</v>
+        <v>0.00010110880712131855</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.40138363199601285</v>
+        <v>0.40138396757129297</v>
       </c>
       <c r="I47">
         <v>0.401414155960083</v>
       </c>
       <c r="J47">
-        <v>3.052396407016156e-5</v>
+        <v>3.0188388790042264e-5</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2393,28 +2393,28 @@
         <v>60</v>
       </c>
       <c r="C48">
-        <v>0.968529898666726</v>
+        <v>0.968529897419314</v>
       </c>
       <c r="D48">
         <v>0.9685291290283203</v>
       </c>
       <c r="E48">
-        <v>7.696384056732342e-7</v>
+        <v>7.683909936107014e-7</v>
       </c>
       <c r="F48">
-        <v>7.946466271441687e-5</v>
+        <v>7.933586823367842e-5</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3068947966183613</v>
+        <v>0.30689493712358457</v>
       </c>
       <c r="I48">
         <v>0.3069460690021515</v>
       </c>
       <c r="J48">
-        <v>5.127238379021293e-5</v>
+        <v>5.113187856692347e-5</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -2428,28 +2428,28 @@
         <v>61</v>
       </c>
       <c r="C49">
-        <v>0.9441623291633786</v>
+        <v>0.9441623267253691</v>
       </c>
       <c r="D49">
         <v>0.944161376953125</v>
       </c>
       <c r="E49">
-        <v>9.52210253646335e-7</v>
+        <v>9.49772244185354e-7</v>
       </c>
       <c r="F49">
-        <v>0.00010085248950970483</v>
+        <v>0.00010059426993829548</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.6408315142737981</v>
+        <v>0.640831831306291</v>
       </c>
       <c r="I49">
         <v>0.6408700942993164</v>
       </c>
       <c r="J49">
-        <v>3.858002551826445e-5</v>
+        <v>3.8262993025450776e-5</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
@@ -2463,28 +2463,28 @@
         <v>62</v>
       </c>
       <c r="C50">
-        <v>0.9374452355838419</v>
+        <v>0.9374452323255626</v>
       </c>
       <c r="D50">
         <v>0.9374442291259766</v>
       </c>
       <c r="E50">
-        <v>1.0064578652713152e-6</v>
+        <v>1.0031995860693144e-6</v>
       </c>
       <c r="F50">
-        <v>0.00010736189247329235</v>
+        <v>0.00010701432201515014</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.3777393724975448</v>
+        <v>0.377739710560088</v>
       </c>
       <c r="I50">
         <v>0.3777689933776855</v>
       </c>
       <c r="J50">
-        <v>2.962088014069053e-5</v>
+        <v>2.928281759750906e-5</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2498,28 +2498,28 @@
         <v>63</v>
       </c>
       <c r="C51">
-        <v>0.9370009300543095</v>
+        <v>0.9370009268042548</v>
       </c>
       <c r="D51">
         <v>0.9369998931884765</v>
       </c>
       <c r="E51">
-        <v>1.0368658329706903e-6</v>
+        <v>1.033615778300856e-6</v>
       </c>
       <c r="F51">
-        <v>0.00011065805241902262</v>
+        <v>0.00011031119489070692</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.36535265880767737</v>
+        <v>0.3653529992502355</v>
       </c>
       <c r="I51">
         <v>0.3653822541236877</v>
       </c>
       <c r="J51">
-        <v>2.9595316010322392e-5</v>
+        <v>2.9254873452178032e-5</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -2533,28 +2533,28 @@
         <v>64</v>
       </c>
       <c r="C52">
-        <v>0.9369379091483662</v>
+        <v>0.9369379058958585</v>
       </c>
       <c r="D52">
         <v>0.9369368743896485</v>
       </c>
       <c r="E52">
-        <v>1.0347587177106377e-6</v>
+        <v>1.0315062100030303e-6</v>
       </c>
       <c r="F52">
-        <v>0.0001104406012822063</v>
+        <v>0.00011009345860947008</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.3635947271239263</v>
+        <v>0.36359506735207164</v>
       </c>
       <c r="I52">
         <v>0.3636243045330048</v>
       </c>
       <c r="J52">
-        <v>2.9577409078496153e-5</v>
+        <v>2.9237180933172624e-5</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -2568,28 +2568,28 @@
         <v>65</v>
       </c>
       <c r="C53">
-        <v>0.9830946541983888</v>
+        <v>0.9830946533350738</v>
       </c>
       <c r="D53">
         <v>0.983093973795573</v>
       </c>
       <c r="E53">
-        <v>6.804028158668984e-7</v>
+        <v>6.795395008918348e-7</v>
       </c>
       <c r="F53">
-        <v>6.92103536389272e-5</v>
+        <v>6.912253751980988e-5</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>-0.344350355634012</v>
+        <v>-0.3443503622841926</v>
       </c>
       <c r="I53">
         <v>-0.3445114493370056</v>
       </c>
       <c r="J53">
-        <v>0.0001610937029936088</v>
+        <v>0.00016108705281303592</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2603,28 +2603,28 @@
         <v>66</v>
       </c>
       <c r="C54">
-        <v>0.9085142954391985</v>
+        <v>0.9085142899233948</v>
       </c>
       <c r="D54">
         <v>0.9085134124755859</v>
       </c>
       <c r="E54">
-        <v>8.829636125584628e-7</v>
+        <v>8.774478088557913e-7</v>
       </c>
       <c r="F54">
-        <v>9.718773552858146e-5</v>
+        <v>9.65806114479758e-5</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>-1.887986681924201</v>
+        <v>-1.8879867444212697</v>
       </c>
       <c r="I54">
         <v>-1.888107776641846</v>
       </c>
       <c r="J54">
-        <v>0.00012109471764487623</v>
+        <v>0.00012103222057624485</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2638,28 +2638,28 @@
         <v>67</v>
       </c>
       <c r="C55">
-        <v>0.9083096370408256</v>
+        <v>0.9083096314545086</v>
       </c>
       <c r="D55">
         <v>0.9083087921142579</v>
       </c>
       <c r="E55">
-        <v>8.449265677112905e-7</v>
+        <v>8.393402507467229e-7</v>
       </c>
       <c r="F55">
-        <v>9.30219519008031e-5</v>
+        <v>9.240692791192763e-5</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>-1.8850452187431168</v>
+        <v>-1.8850452816106096</v>
       </c>
       <c r="I55">
         <v>-1.885165452957153</v>
       </c>
       <c r="J55">
-        <v>0.00012023421403628554</v>
+        <v>0.00012017134654351835</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -2673,28 +2673,28 @@
         <v>68</v>
       </c>
       <c r="C56">
-        <v>0.901559187332258</v>
+        <v>0.9015591804606528</v>
       </c>
       <c r="D56">
         <v>0.9015583038330078</v>
       </c>
       <c r="E56">
-        <v>8.834992502038119e-7</v>
+        <v>8.766276449190258e-7</v>
       </c>
       <c r="F56">
-        <v>9.799690673887454e-5</v>
+        <v>9.723471473691847e-5</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>-1.8605908650434013</v>
+        <v>-1.8605909037140616</v>
       </c>
       <c r="I56">
         <v>-1.860689759254456</v>
       </c>
       <c r="J56">
-        <v>9.889421105468976e-5</v>
+        <v>9.88555403944602e-5</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2708,28 +2708,28 @@
         <v>69</v>
       </c>
       <c r="C57">
-        <v>0.9015675356673144</v>
+        <v>0.9015675287176329</v>
       </c>
       <c r="D57">
         <v>0.9015666198730469</v>
       </c>
       <c r="E57">
-        <v>9.157942675308561e-7</v>
+        <v>9.088445860339078e-7</v>
       </c>
       <c r="F57">
-        <v>0.0001015781027540497</v>
+        <v>0.00010080725772232848</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>-1.815099908108487</v>
+        <v>-1.8150999281935494</v>
       </c>
       <c r="I57">
         <v>-1.815194249153137</v>
       </c>
       <c r="J57">
-        <v>9.434104464989268e-5</v>
+        <v>9.432095958761266e-5</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -2743,28 +2743,28 @@
         <v>70</v>
       </c>
       <c r="C58">
-        <v>0.9016021036527393</v>
+        <v>0.9016020964014798</v>
       </c>
       <c r="D58">
         <v>0.9016011810302734</v>
       </c>
       <c r="E58">
-        <v>9.22622465870937e-7</v>
+        <v>9.153712063891817e-7</v>
       </c>
       <c r="F58">
-        <v>0.0001023315502777672</v>
+        <v>0.00010152728563899761</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>-1.6832286560653227</v>
+        <v>-1.6832286097040356</v>
       </c>
       <c r="I58">
         <v>-1.68330979347229</v>
       </c>
       <c r="J58">
-        <v>8.11374069673576e-5</v>
+        <v>8.118376825438922e-5</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -2778,28 +2778,28 @@
         <v>71</v>
       </c>
       <c r="C59">
-        <v>0.8983475555484707</v>
+        <v>0.8983475485559113</v>
       </c>
       <c r="D59">
         <v>0.8983467102050782</v>
       </c>
       <c r="E59">
-        <v>8.45343392508191e-7</v>
+        <v>8.383508330878087e-7</v>
       </c>
       <c r="F59">
-        <v>9.409990406879908e-5</v>
+        <v>9.332152314515924e-5</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>-2.017840751553253</v>
+        <v>-2.0178408263995484</v>
       </c>
       <c r="I59">
         <v>-2.017946481704712</v>
       </c>
       <c r="J59">
-        <v>0.00010573015145887155</v>
+        <v>0.00010565530516348787</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2813,28 +2813,28 @@
         <v>72</v>
       </c>
       <c r="C60">
-        <v>0.9034000150701161</v>
+        <v>0.9034000080459712</v>
       </c>
       <c r="D60">
         <v>0.9033990478515626</v>
       </c>
       <c r="E60">
-        <v>9.67218553582505e-7</v>
+        <v>9.60194408650139e-7</v>
       </c>
       <c r="F60">
-        <v>0.00010706437602327745</v>
+        <v>0.00010628685196576701</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>-1.4369141115588284</v>
+        <v>-1.4369139996870706</v>
       </c>
       <c r="I60">
         <v>-1.436975479125977</v>
       </c>
       <c r="J60">
-        <v>6.136756714858471e-5</v>
+        <v>6.147943890644214e-5</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -2883,28 +2883,28 @@
         <v>74</v>
       </c>
       <c r="C62">
-        <v>0.8983475555489561</v>
+        <v>0.8983475485559114</v>
       </c>
       <c r="D62">
         <v>0.8983467102050782</v>
       </c>
       <c r="E62">
-        <v>8.453438778976974e-7</v>
+        <v>8.38350833198831e-7</v>
       </c>
       <c r="F62">
-        <v>9.409995810022156e-5</v>
+        <v>9.332152315751776e-5</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>-2.0178407515068155</v>
+        <v>-2.0178408263995635</v>
       </c>
       <c r="I62">
         <v>-2.017946481704712</v>
       </c>
       <c r="J62">
-        <v>0.00010573019789639204</v>
+        <v>0.00010565530514838883</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -2918,28 +2918,28 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.9408132447373314</v>
+        <v>0.9408132423167159</v>
       </c>
       <c r="D63">
         <v>0.9408122253417969</v>
       </c>
       <c r="E63">
-        <v>1.019395534540557e-6</v>
+        <v>1.016974919054725e-6</v>
       </c>
       <c r="F63">
-        <v>0.00010835270918914886</v>
+        <v>0.0001080954192198404</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.7100518432506072</v>
+        <v>0.7100521463129172</v>
       </c>
       <c r="I63">
         <v>0.7100905179977417</v>
       </c>
       <c r="J63">
-        <v>3.867474713448171e-5</v>
+        <v>3.837168482445641e-5</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -2988,28 +2988,28 @@
         <v>77</v>
       </c>
       <c r="C65">
-        <v>0.9713159409197089</v>
+        <v>0.9713159398283685</v>
       </c>
       <c r="D65">
         <v>0.9713151550292969</v>
       </c>
       <c r="E65">
-        <v>7.858904119695254e-7</v>
+        <v>7.84799071618103e-7</v>
       </c>
       <c r="F65">
-        <v>8.090992999546282e-5</v>
+        <v>8.079757301783599e-5</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0.40154306202933976</v>
+        <v>0.4015432004125934</v>
       </c>
       <c r="I65">
         <v>0.4015965461730957</v>
       </c>
       <c r="J65">
-        <v>5.3484143755944125e-5</v>
+        <v>5.334576050231021e-5</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
@@ -3023,28 +3023,28 @@
         <v>78</v>
       </c>
       <c r="C66">
-        <v>0.9408132447373314</v>
+        <v>0.9408132423167157</v>
       </c>
       <c r="D66">
         <v>0.9408122253417969</v>
       </c>
       <c r="E66">
-        <v>1.019395534540557e-6</v>
+        <v>1.0169749188326804e-6</v>
       </c>
       <c r="F66">
-        <v>0.00010835270918914886</v>
+        <v>0.00010809541919623904</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>0.7100518432506072</v>
+        <v>0.7100521464352072</v>
       </c>
       <c r="I66">
         <v>0.7100905179977417</v>
       </c>
       <c r="J66">
-        <v>3.867474713448171e-5</v>
+        <v>3.837156253450047e-5</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
@@ -3058,28 +3058,28 @@
         <v>79</v>
       </c>
       <c r="C67">
-        <v>0.9245809186943157</v>
+        <v>0.9245809142364916</v>
       </c>
       <c r="D67">
         <v>0.924580078125</v>
       </c>
       <c r="E67">
-        <v>8.405693157076399e-7</v>
+        <v>8.361114915977907e-7</v>
       </c>
       <c r="F67">
-        <v>9.09136304788516e-5</v>
+        <v>9.043148466851904e-5</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-1.5616448655627986</v>
+        <v>-1.5616449213506123</v>
       </c>
       <c r="I67">
         <v>-1.561777472496033</v>
       </c>
       <c r="J67">
-        <v>0.00013260693323435824</v>
+        <v>0.00013255114542065627</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
@@ -3093,28 +3093,28 @@
         <v>80</v>
       </c>
       <c r="C68">
-        <v>0.9245809187883752</v>
+        <v>0.9245809142261444</v>
       </c>
       <c r="D68">
         <v>0.924580078125</v>
       </c>
       <c r="E68">
-        <v>8.406633752455761e-7</v>
+        <v>8.361011444302235e-7</v>
       </c>
       <c r="F68">
-        <v>9.092380369587862e-5</v>
+        <v>9.043036554776228e-5</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>-1.5616448568200916</v>
+        <v>-1.5616449210227206</v>
       </c>
       <c r="I68">
         <v>-1.561777472496033</v>
       </c>
       <c r="J68">
-        <v>0.00013261567594136103</v>
+        <v>0.00013255147331237005</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
@@ -3128,28 +3128,28 @@
         <v>81</v>
       </c>
       <c r="C69">
-        <v>0.9039033165390759</v>
+        <v>0.9039033095738749</v>
       </c>
       <c r="D69">
         <v>0.903902359008789</v>
       </c>
       <c r="E69">
-        <v>9.57530286838093e-7</v>
+        <v>9.505650858665504e-7</v>
       </c>
       <c r="F69">
-        <v>0.00010593293371732229</v>
+        <v>0.0001051623636549562</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>-1.4223614865800351</v>
+        <v>-1.4223613792500645</v>
       </c>
       <c r="I69">
         <v>-1.422422885894775</v>
       </c>
       <c r="J69">
-        <v>6.139931473980731e-5</v>
+        <v>6.150664471049616e-5</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
@@ -3163,28 +3163,28 @@
         <v>82</v>
       </c>
       <c r="C70">
-        <v>0.9037595101623449</v>
+        <v>0.9037595031586483</v>
       </c>
       <c r="D70">
         <v>0.903758544921875</v>
       </c>
       <c r="E70">
-        <v>9.652404698856643e-7</v>
+        <v>9.582367732630104e-7</v>
       </c>
       <c r="F70">
-        <v>0.00010680291492780343</v>
+        <v>0.00010602796273930055</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>-1.4265177263716748</v>
+        <v>-1.4265176153604078</v>
       </c>
       <c r="I70">
         <v>-1.426579117774963</v>
       </c>
       <c r="J70">
-        <v>6.139140328809134e-5</v>
+        <v>6.150241455515904e-5</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
@@ -3198,28 +3198,28 @@
         <v>83</v>
       </c>
       <c r="C71">
-        <v>0.9054241712214778</v>
+        <v>0.9054241643948029</v>
       </c>
       <c r="D71">
         <v>0.9054232025146485</v>
       </c>
       <c r="E71">
-        <v>9.687068293073864e-7</v>
+        <v>9.6188015441534e-7</v>
       </c>
       <c r="F71">
-        <v>0.0001069893975123433</v>
+        <v>0.00010623542137465579</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>-1.3008496640171796</v>
+        <v>-1.3008495314782593</v>
       </c>
       <c r="I71">
         <v>-1.300903081893921</v>
       </c>
       <c r="J71">
-        <v>5.3417876741290726e-5</v>
+        <v>5.3550415661574036e-5</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>

--- a/analysis_results/voltage_comparison_results.xlsx
+++ b/analysis_results/voltage_comparison_results.xlsx
@@ -689,16 +689,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.9807462852372174</v>
+        <v>0.9807462852372173</v>
       </c>
       <c r="D3">
         <v>0.9810398864746094</v>
       </c>
       <c r="E3">
-        <v>0.00029360123739197164</v>
+        <v>0.00029360123739208266</v>
       </c>
       <c r="F3">
-        <v>0.029927553552081845</v>
+        <v>0.02992755355209316</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1.0007688747643624</v>
+        <v>1.0007688747643622</v>
       </c>
       <c r="D4">
         <v>1.001056823730469</v>
       </c>
       <c r="E4">
-        <v>0.00028794896610651044</v>
+        <v>0.0002879489661067325</v>
       </c>
       <c r="F4">
-        <v>0.028764497606984966</v>
+        <v>0.02876449760700715</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.9070745359311609</v>
+        <v>0.9070745426436617</v>
       </c>
       <c r="D2">
         <v>0.9070735168457031</v>
       </c>
       <c r="E2">
-        <v>1.0190854577984965e-6</v>
+        <v>1.0257979585759358e-6</v>
       </c>
       <c r="F2">
-        <v>0.00011234871693115996</v>
+        <v>0.00011308873421231502</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>-1.1915776304554764</v>
+        <v>-1.1915777847883038</v>
       </c>
       <c r="I2">
         <v>-1.191624760627747</v>
       </c>
       <c r="J2">
-        <v>4.713017227064853e-5</v>
+        <v>4.6975839443241796e-5</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -818,28 +818,28 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0.9507993434586752</v>
+        <v>0.9507993461557318</v>
       </c>
       <c r="D3">
         <v>0.950798568725586</v>
       </c>
       <c r="E3">
-        <v>7.747330892371451e-7</v>
+        <v>7.774301458152166e-7</v>
       </c>
       <c r="F3">
-        <v>8.148235753820788e-5</v>
+        <v>8.176601978453273e-5</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-1.0308196263448908</v>
+        <v>-1.030819608118785</v>
       </c>
       <c r="I3">
         <v>-1.030968189239502</v>
       </c>
       <c r="J3">
-        <v>0.00014856289461118166</v>
+        <v>0.00014858112071691743</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -853,28 +853,28 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0.9036353105623853</v>
+        <v>0.9036353175860105</v>
       </c>
       <c r="D4">
         <v>0.9036344146728515</v>
       </c>
       <c r="E4">
-        <v>8.958895337807249e-7</v>
+        <v>9.029131589066708e-7</v>
       </c>
       <c r="F4">
-        <v>9.914291877706642e-5</v>
+        <v>9.992018279135133e-5</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-1.430108157801551</v>
+        <v>-1.430108269626149</v>
       </c>
       <c r="I4">
         <v>-1.430169701576233</v>
       </c>
       <c r="J4">
-        <v>6.154377468181593e-5</v>
+        <v>6.143195008401214e-5</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -888,28 +888,28 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.9037595031349792</v>
+        <v>0.9037595101619258</v>
       </c>
       <c r="D5">
         <v>0.903758544921875</v>
       </c>
       <c r="E5">
-        <v>9.582131041963038e-7</v>
+        <v>9.652400507764725e-7</v>
       </c>
       <c r="F5">
-        <v>0.00010602534378019476</v>
+        <v>0.00010680286855378083</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-1.4265176140475397</v>
+        <v>-1.4265177264115365</v>
       </c>
       <c r="I5">
         <v>-1.426579117774963</v>
       </c>
       <c r="J5">
-        <v>6.150372742319554e-5</v>
+        <v>6.139136342642182e-5</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -923,28 +923,28 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.9321128837626504</v>
+        <v>0.9321128876893305</v>
       </c>
       <c r="D6">
         <v>0.9321121215820313</v>
       </c>
       <c r="E6">
-        <v>7.62180619173769e-7</v>
+        <v>7.661072992659612e-7</v>
       </c>
       <c r="F6">
-        <v>8.176919938345557e-5</v>
+        <v>8.219046631060674e-5</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-1.4090063687748982</v>
+        <v>-1.4090063232899834</v>
       </c>
       <c r="I6">
         <v>-1.409143805503845</v>
       </c>
       <c r="J6">
-        <v>0.00013743672894683812</v>
+        <v>0.00013748221386156168</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -958,28 +958,28 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.9289094798119771</v>
+        <v>0.9289094842384549</v>
       </c>
       <c r="D7">
         <v>0.9289085133870443</v>
       </c>
       <c r="E7">
-        <v>9.664249328578123e-7</v>
+        <v>9.708514105977173e-7</v>
       </c>
       <c r="F7">
-        <v>0.00010403876365972504</v>
+        <v>0.00010451528827717792</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0001687456816657231</v>
+        <v>0.0001683987522384544</v>
       </c>
       <c r="I7">
         <v>0.0001823189377319068</v>
       </c>
       <c r="J7">
-        <v>1.3573256066183706e-5</v>
+        <v>1.3920185493452388e-5</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -993,28 +993,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.9254146214906754</v>
+        <v>0.9254146263476033</v>
       </c>
       <c r="D8">
         <v>0.925413589477539</v>
       </c>
       <c r="E8">
-        <v>1.0320131363927842e-6</v>
+        <v>1.0368700642526818e-6</v>
       </c>
       <c r="F8">
-        <v>0.00011151912486777163</v>
+        <v>0.00011204396348210833</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-0.16545791706257987</v>
+        <v>-0.16545824677345666</v>
       </c>
       <c r="I8">
         <v>-0.1654517948627472</v>
       </c>
       <c r="J8">
-        <v>6.122199832675479e-6</v>
+        <v>6.4519107094707095e-6</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1028,28 +1028,28 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0.9408132423167159</v>
+        <v>0.9408132447373319</v>
       </c>
       <c r="D9">
         <v>0.9408122253417969</v>
       </c>
       <c r="E9">
-        <v>1.016974919054725e-6</v>
+        <v>1.0193955349846462e-6</v>
       </c>
       <c r="F9">
-        <v>0.0001080954192198404</v>
+        <v>0.0001083527092363516</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.710052146564453</v>
+        <v>0.7100518432505987</v>
       </c>
       <c r="I9">
         <v>0.7100905179977417</v>
       </c>
       <c r="J9">
-        <v>3.8371433288664214e-5</v>
+        <v>3.867474714303043e-5</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1063,28 +1063,28 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.9015808672918212</v>
+        <v>0.9015808743447453</v>
       </c>
       <c r="D10">
         <v>0.9015799713134766</v>
       </c>
       <c r="E10">
-        <v>8.959783446282898e-7</v>
+        <v>9.030312687619002e-7</v>
       </c>
       <c r="F10">
-        <v>9.937868776332442e-5</v>
+        <v>0.00010016097268069401</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>-1.7480622000650352</v>
+        <v>-1.7480622091246703</v>
       </c>
       <c r="I10">
         <v>-1.748149871826172</v>
       </c>
       <c r="J10">
-        <v>8.767176113688713e-5</v>
+        <v>8.766270150184496e-5</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1098,28 +1098,28 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.9050236058542283</v>
+        <v>0.9050236118828808</v>
       </c>
       <c r="D11">
         <v>0.9050227355957031</v>
       </c>
       <c r="E11">
-        <v>8.702585251318951e-7</v>
+        <v>8.762871777090453e-7</v>
       </c>
       <c r="F11">
-        <v>9.615874727821886e-5</v>
+        <v>9.682487999953465e-5</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>-1.9244928490152144</v>
+        <v>-1.9244927845428963</v>
       </c>
       <c r="I11">
         <v>-1.924607753753662</v>
       </c>
       <c r="J11">
-        <v>0.00011490473844766314</v>
+        <v>0.00011496921076581401</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1133,28 +1133,28 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.8966006702160461</v>
+        <v>0.8966006772180323</v>
       </c>
       <c r="D12">
         <v>0.8965998077392578</v>
       </c>
       <c r="E12">
-        <v>8.624767882103868e-7</v>
+        <v>8.694787744234489e-7</v>
       </c>
       <c r="F12">
-        <v>9.619417501160178e-5</v>
+        <v>9.69751238978967e-5</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>-2.068616465738659</v>
+        <v>-2.068616390321577</v>
       </c>
       <c r="I12">
         <v>-2.068722248077393</v>
       </c>
       <c r="J12">
-        <v>0.00010578233873381748</v>
+        <v>0.0001058577558161744</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1168,28 +1168,28 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0.9029546320333222</v>
+        <v>0.9029546385596112</v>
       </c>
       <c r="D13">
         <v>0.9029537200927734</v>
       </c>
       <c r="E13">
-        <v>9.119405487423293e-7</v>
+        <v>9.184668378070526e-7</v>
       </c>
       <c r="F13">
-        <v>0.0001009952701284217</v>
+        <v>0.00010171804128706455</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-1.9227392768467</v>
+        <v>-1.922739209620614</v>
       </c>
       <c r="I13">
         <v>-1.922848224639893</v>
       </c>
       <c r="J13">
-        <v>0.00010894779319303716</v>
+        <v>0.00010901501927906843</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1203,28 +1203,28 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>0.9017865648985433</v>
+        <v>0.9017865720354802</v>
       </c>
       <c r="D14">
         <v>0.9017856597900391</v>
       </c>
       <c r="E14">
-        <v>9.05108504145602e-7</v>
+        <v>9.122454410759318e-7</v>
       </c>
       <c r="F14">
-        <v>0.00010036847385179496</v>
+        <v>0.00010115989660872718</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-1.6778821120910021</v>
+        <v>-1.6778821501404169</v>
       </c>
       <c r="I14">
         <v>-1.677963256835938</v>
       </c>
       <c r="J14">
-        <v>8.11447449358127e-5</v>
+        <v>8.110669552108263e-5</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -1238,28 +1238,28 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0.9369379058958583</v>
+        <v>0.936937909147193</v>
       </c>
       <c r="D15">
         <v>0.9369368743896485</v>
       </c>
       <c r="E15">
-        <v>1.031506209892008e-6</v>
+        <v>1.0347575445379675e-6</v>
       </c>
       <c r="F15">
-        <v>0.00011009345859762058</v>
+        <v>0.00011044047606857641</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.3635950673526478</v>
+        <v>0.3635947270163363</v>
       </c>
       <c r="I15">
         <v>0.3636243045330048</v>
       </c>
       <c r="J15">
-        <v>2.9237180357022385e-5</v>
+        <v>2.9577516668488624e-5</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1273,28 +1273,28 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>0.9022593046440293</v>
+        <v>0.9022593117339925</v>
       </c>
       <c r="D16">
         <v>0.90225830078125</v>
       </c>
       <c r="E16">
-        <v>1.0038627792363641e-6</v>
+        <v>1.0109527425194997e-6</v>
       </c>
       <c r="F16">
-        <v>0.00011126112980807564</v>
+        <v>0.0001120469317538152</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-1.5881927262311066</v>
+        <v>-1.588192790085087</v>
       </c>
       <c r="I16">
         <v>-1.588266253471375</v>
       </c>
       <c r="J16">
-        <v>7.352724026832291e-5</v>
+        <v>7.346338628799742e-5</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1308,28 +1308,28 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>0.9104295118130358</v>
+        <v>0.9104295183535213</v>
       </c>
       <c r="D17">
         <v>0.9104285430908203</v>
       </c>
       <c r="E17">
-        <v>9.687222154441955e-7</v>
+        <v>9.752627009307346e-7</v>
       </c>
       <c r="F17">
-        <v>0.000106402882773806</v>
+        <v>0.00010712127913079353</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-0.9970480620883087</v>
+        <v>-0.9970482532402872</v>
       </c>
       <c r="I17">
         <v>-0.9970849752426147</v>
       </c>
       <c r="J17">
-        <v>3.691315430609521e-5</v>
+        <v>3.67220023275161e-5</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1343,28 +1343,28 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>0.8997556604160933</v>
+        <v>0.8997556673587745</v>
       </c>
       <c r="D18">
         <v>0.8997547912597657</v>
       </c>
       <c r="E18">
-        <v>8.691563276874703e-7</v>
+        <v>8.760990088951814e-7</v>
       </c>
       <c r="F18">
-        <v>9.659924416412901e-5</v>
+        <v>9.737086341808048e-5</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-1.977006358597175</v>
+        <v>-1.9770062832448134</v>
       </c>
       <c r="I18">
         <v>-1.97711181640625</v>
       </c>
       <c r="J18">
-        <v>0.00010545780907489366</v>
+        <v>0.00010553316143657732</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1378,28 +1378,28 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>0.8985841745345051</v>
+        <v>0.8985841815119054</v>
       </c>
       <c r="D19">
         <v>0.8985832977294922</v>
       </c>
       <c r="E19">
-        <v>8.768050129281946e-7</v>
+        <v>8.837824132523764e-7</v>
       </c>
       <c r="F19">
-        <v>9.757637551729192e-5</v>
+        <v>9.835286450187599e-5</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-2.010958236746494</v>
+        <v>-2.010958161285718</v>
       </c>
       <c r="I19">
         <v>-2.011063814163208</v>
       </c>
       <c r="J19">
-        <v>0.00010557741671401999</v>
+        <v>0.00010565287748987018</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
@@ -1413,28 +1413,28 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>0.8975214698781804</v>
+        <v>0.8975214768773264</v>
       </c>
       <c r="D20">
         <v>0.8975205993652344</v>
       </c>
       <c r="E20">
-        <v>8.705129459496419e-7</v>
+        <v>8.775120919901624e-7</v>
       </c>
       <c r="F20">
-        <v>9.699085977138647e-5</v>
+        <v>9.777069101375245e-5</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-2.0418148806230016</v>
+        <v>-2.041814805237099</v>
       </c>
       <c r="I20">
         <v>-2.04192042350769</v>
       </c>
       <c r="J20">
-        <v>0.00010554288468833661</v>
+        <v>0.00010561827059119011</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
@@ -1448,28 +1448,28 @@
         <v>33</v>
       </c>
       <c r="C21">
-        <v>0.8960207259975717</v>
+        <v>0.8960207330040981</v>
       </c>
       <c r="D21">
         <v>0.8960198211669922</v>
       </c>
       <c r="E21">
-        <v>9.048305794623346e-7</v>
+        <v>9.118371059324559e-7</v>
       </c>
       <c r="F21">
-        <v>0.00010098332180686216</v>
+        <v>0.0001017652829091284</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>-2.08552157987575</v>
+        <v>-2.085521504271548</v>
       </c>
       <c r="I21">
         <v>-2.085627317428589</v>
       </c>
       <c r="J21">
-        <v>0.00010573755283882491</v>
+        <v>0.00010581315704083494</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1483,28 +1483,28 @@
         <v>34</v>
       </c>
       <c r="C22">
-        <v>0.9743034559787728</v>
+        <v>0.9743034573142084</v>
       </c>
       <c r="D22">
         <v>0.974302749633789</v>
       </c>
       <c r="E22">
-        <v>7.063449837252378e-7</v>
+        <v>7.076804193761888e-7</v>
       </c>
       <c r="F22">
-        <v>7.249748437954543e-5</v>
+        <v>7.263455015827313e-5</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-0.5275937881474931</v>
+        <v>-0.5275937781306261</v>
       </c>
       <c r="I22">
         <v>-0.527751624584198</v>
       </c>
       <c r="J22">
-        <v>0.00015783643670486125</v>
+        <v>0.00015784645357186378</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1518,28 +1518,28 @@
         <v>35</v>
       </c>
       <c r="C23">
-        <v>0.961257617678125</v>
+        <v>0.9612576197506842</v>
       </c>
       <c r="D23">
         <v>0.9612568664550781</v>
       </c>
       <c r="E23">
-        <v>7.512230468798009e-7</v>
+        <v>7.532956061151452e-7</v>
       </c>
       <c r="F23">
-        <v>7.81500838220444e-5</v>
+        <v>7.836569312562081e-5</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>-0.8048097454817424</v>
+        <v>-0.8048097303988346</v>
       </c>
       <c r="I23">
         <v>-0.8049625158309937</v>
       </c>
       <c r="J23">
-        <v>0.0001527703492512078</v>
+        <v>0.0001527854321590194</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>36</v>
       </c>
       <c r="C24">
-        <v>0.9410883353944905</v>
+        <v>0.9410883387420936</v>
       </c>
       <c r="D24">
         <v>0.9410875701904297</v>
       </c>
       <c r="E24">
-        <v>7.652040608929767e-7</v>
+        <v>7.685516639766021e-7</v>
       </c>
       <c r="F24">
-        <v>8.131061179972201e-5</v>
+        <v>8.166632822714737e-5</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>-1.227086646890134</v>
+        <v>-1.2270866113886671</v>
       </c>
       <c r="I24">
         <v>-1.227229595184326</v>
       </c>
       <c r="J24">
-        <v>0.00014294829419192467</v>
+        <v>0.00014298379565880204</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1588,28 +1588,28 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>0.9171809804218722</v>
+        <v>0.9171809853279584</v>
       </c>
       <c r="D25">
         <v>0.91718017578125</v>
       </c>
       <c r="E25">
-        <v>8.046406222428359e-7</v>
+        <v>8.095467084467955e-7</v>
       </c>
       <c r="F25">
-        <v>8.772983144314548e-5</v>
+        <v>8.826474119517763e-5</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-1.7141830532309204</v>
+        <v>-1.714182994616445</v>
       </c>
       <c r="I25">
         <v>-1.714310646057129</v>
       </c>
       <c r="J25">
-        <v>0.00012759282620855572</v>
+        <v>0.00012765144068382916</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1623,28 +1623,28 @@
         <v>38</v>
       </c>
       <c r="C26">
-        <v>0.9120075755286933</v>
+        <v>0.9120075808172915</v>
       </c>
       <c r="D26">
         <v>0.9120067596435547</v>
       </c>
       <c r="E26">
-        <v>8.158851385609012e-7</v>
+        <v>8.211737367869176e-7</v>
       </c>
       <c r="F26">
-        <v>8.946042668365514e-5</v>
+        <v>9.004031254196647e-5</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>-1.8153530630749832</v>
+        <v>-1.8153530016289325</v>
       </c>
       <c r="I26">
         <v>-1.815476536750793</v>
       </c>
       <c r="J26">
-        <v>0.00012347367580978208</v>
+        <v>0.0001235351218604741</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1658,28 +1658,28 @@
         <v>39</v>
       </c>
       <c r="C27">
-        <v>0.9032593645585312</v>
+        <v>0.9032593710117286</v>
       </c>
       <c r="D27">
         <v>0.9032585144042968</v>
       </c>
       <c r="E27">
-        <v>8.501542343442026e-7</v>
+        <v>8.566074317650774e-7</v>
       </c>
       <c r="F27">
-        <v>9.412081046419841e-5</v>
+        <v>9.483524573582502e-5</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-1.9229980594283251</v>
+        <v>-1.9229979925887</v>
       </c>
       <c r="I27">
         <v>-1.923107981681824</v>
       </c>
       <c r="J27">
-        <v>0.00010992225349881757</v>
+        <v>0.00010998909312398553</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1693,28 +1693,28 @@
         <v>40</v>
       </c>
       <c r="C28">
-        <v>0.9017456604559106</v>
+        <v>0.9017456672123318</v>
       </c>
       <c r="D28">
         <v>0.9017447662353516</v>
       </c>
       <c r="E28">
-        <v>8.94220559044534e-7</v>
+        <v>9.009769802448275e-7</v>
       </c>
       <c r="F28">
-        <v>9.916559458146565e-5</v>
+        <v>9.99148555090894e-5</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-1.9194997085842649</v>
+        <v>-1.9194996444007473</v>
       </c>
       <c r="I28">
         <v>-1.919605016708374</v>
       </c>
       <c r="J28">
-        <v>0.00010530812410913803</v>
+        <v>0.00010537230762674987</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1728,28 +1728,28 @@
         <v>41</v>
       </c>
       <c r="C29">
-        <v>0.9349305181844982</v>
+        <v>0.9349305218404551</v>
       </c>
       <c r="D29">
         <v>0.9349295043945313</v>
       </c>
       <c r="E29">
-        <v>1.0137899669748762e-6</v>
+        <v>1.0174459238454503e-6</v>
       </c>
       <c r="F29">
-        <v>0.00010843491003435768</v>
+        <v>0.00010882595094743077</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.2674053303734968</v>
+        <v>0.26740498149312886</v>
       </c>
       <c r="I29">
         <v>0.2674300074577332</v>
       </c>
       <c r="J29">
-        <v>2.4677084236424118e-5</v>
+        <v>2.502596460435269e-5</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1763,28 +1763,28 @@
         <v>42</v>
       </c>
       <c r="C30">
-        <v>0.9235930243509942</v>
+        <v>0.9235930294840756</v>
       </c>
       <c r="D30">
         <v>0.9235919952392578</v>
       </c>
       <c r="E30">
-        <v>1.0291117363836477e-6</v>
+        <v>1.0342448177880215e-6</v>
       </c>
       <c r="F30">
-        <v>0.00011142493023849291</v>
+        <v>0.00011198070393844187</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-0.2645436893858682</v>
+        <v>-0.26454400815704654</v>
       </c>
       <c r="I30">
         <v>-0.2645426988601685</v>
       </c>
       <c r="J30">
-        <v>9.905256996844969e-7</v>
+        <v>1.3092968780270553e-6</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>43</v>
       </c>
       <c r="C31">
-        <v>0.9201231442710068</v>
+        <v>0.9201231498581918</v>
       </c>
       <c r="D31">
         <v>0.9201221466064453</v>
       </c>
       <c r="E31">
-        <v>9.976645615195068e-7</v>
+        <v>1.003251746456435e-6</v>
       </c>
       <c r="F31">
-        <v>0.00010842740447005325</v>
+        <v>0.00010903462656089571</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>-0.45479553959436714</v>
+        <v>-0.4547958303469545</v>
       </c>
       <c r="I31">
         <v>-0.454804390668869</v>
       </c>
       <c r="J31">
-        <v>8.851074501881051e-6</v>
+        <v>8.560321914541369e-6</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -1833,28 +1833,28 @@
         <v>44</v>
       </c>
       <c r="C32">
-        <v>0.9184744060783134</v>
+        <v>0.9184744118591389</v>
       </c>
       <c r="D32">
         <v>0.9184734344482421</v>
       </c>
       <c r="E32">
-        <v>9.716300712891979e-7</v>
+        <v>9.774108967741668e-7</v>
       </c>
       <c r="F32">
-        <v>0.00010578749856525667</v>
+        <v>0.00010641689352303699</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>-0.5458964158536966</v>
+        <v>-0.5458966920871742</v>
       </c>
       <c r="I32">
         <v>-0.5459099411964417</v>
       </c>
       <c r="J32">
-        <v>1.3525342745013269e-5</v>
+        <v>1.324910926747691e-5</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1868,28 +1868,28 @@
         <v>45</v>
       </c>
       <c r="C33">
-        <v>0.9160056721483917</v>
+        <v>0.9160056782292174</v>
       </c>
       <c r="D33">
         <v>0.9160046895345052</v>
       </c>
       <c r="E33">
-        <v>9.826138864799105e-7</v>
+        <v>9.886947122117462e-7</v>
       </c>
       <c r="F33">
-        <v>0.00010727170916332916</v>
+        <v>0.00010793555136864862</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>-0.683162051226703</v>
+        <v>-0.6831623061114138</v>
       </c>
       <c r="I33">
         <v>-0.6831827163696289</v>
       </c>
       <c r="J33">
-        <v>2.066514292586863e-5</v>
+        <v>2.0410258215086685e-5</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1903,28 +1903,28 @@
         <v>46</v>
       </c>
       <c r="C34">
-        <v>0.913542224092202</v>
+        <v>0.913542230413846</v>
       </c>
       <c r="D34">
         <v>0.9135411834716797</v>
       </c>
       <c r="E34">
-        <v>1.0406205223079112e-6</v>
+        <v>1.0469421662939737e-6</v>
       </c>
       <c r="F34">
-        <v>0.0001139106305370163</v>
+        <v>0.00011460262385931391</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>-0.8211687788679831</v>
+        <v>-0.8211690060490519</v>
       </c>
       <c r="I34">
         <v>-0.8211965560913086</v>
       </c>
       <c r="J34">
-        <v>2.777722332547583e-5</v>
+        <v>2.755004225674096e-5</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -1938,28 +1938,28 @@
         <v>47</v>
       </c>
       <c r="C35">
-        <v>0.9117390798092835</v>
+        <v>0.9117390862734581</v>
       </c>
       <c r="D35">
         <v>0.9117380523681641</v>
       </c>
       <c r="E35">
-        <v>1.0274411194055588e-6</v>
+        <v>1.0339052940455673e-6</v>
       </c>
       <c r="F35">
-        <v>0.00011269038478067968</v>
+        <v>0.00011339937949941696</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>-0.9228472660788135</v>
+        <v>-0.9228474725759621</v>
       </c>
       <c r="I35">
         <v>-0.9228803515434265</v>
       </c>
       <c r="J35">
-        <v>3.308546461300299e-5</v>
+        <v>3.287896746440033e-5</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -1973,28 +1973,28 @@
         <v>48</v>
       </c>
       <c r="C36">
-        <v>0.9102332085286414</v>
+        <v>0.910233215078384</v>
       </c>
       <c r="D36">
         <v>0.9102322387695313</v>
       </c>
       <c r="E36">
-        <v>9.697591101254233e-7</v>
+        <v>9.763088526515418e-7</v>
       </c>
       <c r="F36">
-        <v>0.00010653974544302689</v>
+        <v>0.00010725931372979428</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>-1.0081965917780673</v>
+        <v>-1.0081967807857486</v>
       </c>
       <c r="I36">
         <v>-1.008234024047852</v>
       </c>
       <c r="J36">
-        <v>3.743226978469849e-5</v>
+        <v>3.7243262103414665e-5</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -2008,28 +2008,28 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>0.9135422240787147</v>
+        <v>0.9135422304000923</v>
       </c>
       <c r="D37">
         <v>0.9135411834716797</v>
       </c>
       <c r="E37">
-        <v>1.0406070349855412e-6</v>
+        <v>1.0469284126291e-6</v>
       </c>
       <c r="F37">
-        <v>0.00011390915415887221</v>
+        <v>0.0001146011183262167</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>-0.8211687782884358</v>
+        <v>-0.8211690073428519</v>
       </c>
       <c r="I37">
         <v>-0.8211965560913086</v>
       </c>
       <c r="J37">
-        <v>2.777780287277487e-5</v>
+        <v>2.7548748456673877e-5</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -2043,28 +2043,28 @@
         <v>50</v>
       </c>
       <c r="C38">
-        <v>0.9184744060783134</v>
+        <v>0.9184744118591389</v>
       </c>
       <c r="D38">
         <v>0.9184734344482421</v>
       </c>
       <c r="E38">
-        <v>9.716300712891979e-7</v>
+        <v>9.774108967741668e-7</v>
       </c>
       <c r="F38">
-        <v>0.00010578749856525667</v>
+        <v>0.00010641689352303699</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>-0.5458964158536938</v>
+        <v>-0.5458966920871743</v>
       </c>
       <c r="I38">
         <v>-0.5459099411964417</v>
       </c>
       <c r="J38">
-        <v>1.3525342747899849e-5</v>
+        <v>1.3249109267365888e-5</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -2078,28 +2078,28 @@
         <v>51</v>
       </c>
       <c r="C39">
-        <v>0.9255280679481144</v>
+        <v>0.9255280728030157</v>
       </c>
       <c r="D39">
         <v>0.9255271148681641</v>
       </c>
       <c r="E39">
-        <v>9.530799502943665e-7</v>
+        <v>9.579348516641772e-7</v>
       </c>
       <c r="F39">
-        <v>0.00010297698846242092</v>
+        <v>0.00010350154374468321</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>-0.16144418960544243</v>
+        <v>-0.1614445210983656</v>
       </c>
       <c r="I39">
         <v>-0.161438062787056</v>
       </c>
       <c r="J39">
-        <v>6.126818386437138e-6</v>
+        <v>6.458311309603948e-6</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -2113,28 +2113,28 @@
         <v>52</v>
       </c>
       <c r="C40">
-        <v>0.9117390797862825</v>
+        <v>0.9117390862602917</v>
       </c>
       <c r="D40">
         <v>0.9117380523681641</v>
       </c>
       <c r="E40">
-        <v>1.0274181184710685e-6</v>
+        <v>1.0338921275776514e-6</v>
       </c>
       <c r="F40">
-        <v>0.00011268786202379455</v>
+        <v>0.00011339793539297851</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>-0.9228472655257928</v>
+        <v>-0.9228474738169775</v>
       </c>
       <c r="I40">
         <v>-0.9228803515434265</v>
       </c>
       <c r="J40">
-        <v>3.30860176337433e-5</v>
+        <v>3.287772644899878e-5</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -2148,28 +2148,28 @@
         <v>53</v>
       </c>
       <c r="C41">
-        <v>0.9235930243441999</v>
+        <v>0.923593029478253</v>
       </c>
       <c r="D41">
         <v>0.9235919952392578</v>
       </c>
       <c r="E41">
-        <v>1.0291049420407816e-6</v>
+        <v>1.0342389951123465e-6</v>
       </c>
       <c r="F41">
-        <v>0.00011142419459516758</v>
+        <v>0.00011198007350035829</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>-0.26454368834541997</v>
+        <v>-0.26454401211946216</v>
       </c>
       <c r="I41">
         <v>-0.2645426988601685</v>
       </c>
       <c r="J41">
-        <v>9.89485251456923e-7</v>
+        <v>1.3132592936448972e-6</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -2183,28 +2183,28 @@
         <v>54</v>
       </c>
       <c r="C42">
-        <v>0.9160056721365957</v>
+        <v>0.9160056782138726</v>
       </c>
       <c r="D42">
         <v>0.9160046895345052</v>
       </c>
       <c r="E42">
-        <v>9.826020904712962e-7</v>
+        <v>9.886793673752337e-7</v>
       </c>
       <c r="F42">
-        <v>0.00010727042139605578</v>
+        <v>0.00010793387617673225</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>-0.683162050352303</v>
+        <v>-0.6831623075510209</v>
       </c>
       <c r="I42">
         <v>-0.6831827163696289</v>
       </c>
       <c r="J42">
-        <v>2.0666017325865482e-5</v>
+        <v>2.040881860798649e-5</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -2218,28 +2218,28 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>0.9316666051656171</v>
+        <v>0.9316666092955259</v>
       </c>
       <c r="D43">
         <v>0.9316656239827474</v>
       </c>
       <c r="E43">
-        <v>9.811828696193459e-7</v>
+        <v>9.853127784786864e-7</v>
       </c>
       <c r="F43">
-        <v>0.00010531491603445867</v>
+        <v>0.00010575819834015173</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>0.1230809251074533</v>
+        <v>0.12308056363406117</v>
       </c>
       <c r="I43">
         <v>0.123099610209465</v>
       </c>
       <c r="J43">
-        <v>1.8685102011695154e-5</v>
+        <v>1.904657540383048e-5</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -2253,28 +2253,28 @@
         <v>56</v>
       </c>
       <c r="C44">
-        <v>0.9316666051395257</v>
+        <v>0.9316666093432953</v>
       </c>
       <c r="D44">
         <v>0.9316656239827474</v>
       </c>
       <c r="E44">
-        <v>9.811567782680441e-7</v>
+        <v>9.853605478227223e-7</v>
       </c>
       <c r="F44">
-        <v>0.00010531211552850138</v>
+        <v>0.00010576332564578654</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.12308092616416419</v>
+        <v>0.12308054619550023</v>
       </c>
       <c r="I44">
         <v>0.123099610209465</v>
       </c>
       <c r="J44">
-        <v>1.8684045300809693e-5</v>
+        <v>1.9064013964772974e-5</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2288,28 +2288,28 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>0.9856519198196756</v>
+        <v>0.98565192034981</v>
       </c>
       <c r="D45">
         <v>0.9856512451171875</v>
       </c>
       <c r="E45">
-        <v>6.747024881015307e-7</v>
+        <v>6.75232622482369e-7</v>
       </c>
       <c r="F45">
-        <v>6.84524563271173e-5</v>
+        <v>6.850624151568828e-5</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.19785022047733153</v>
+        <v>0.1978501567478068</v>
       </c>
       <c r="I45">
         <v>0.1979097276926041</v>
       </c>
       <c r="J45">
-        <v>5.9507215272563974e-5</v>
+        <v>5.957094479730474e-5</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -2323,28 +2323,28 @@
         <v>58</v>
       </c>
       <c r="C46">
-        <v>0.9408232981447519</v>
+        <v>0.9408233009090365</v>
       </c>
       <c r="D46">
         <v>0.9408222961425782</v>
       </c>
       <c r="E46">
-        <v>1.0020021736778517e-6</v>
+        <v>1.0047664583678895e-6</v>
       </c>
       <c r="F46">
-        <v>0.0001065028090624674</v>
+        <v>0.00010679662487671539</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.5191808549098306</v>
+        <v>0.5191805306334637</v>
       </c>
       <c r="I46">
         <v>0.5192156434059143</v>
       </c>
       <c r="J46">
-        <v>3.4788496083737463e-5</v>
+        <v>3.511277245060729e-5</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -2358,28 +2358,28 @@
         <v>59</v>
       </c>
       <c r="C47">
-        <v>0.9380078453802405</v>
+        <v>0.9380078485591001</v>
       </c>
       <c r="D47">
         <v>0.9380068969726563</v>
       </c>
       <c r="E47">
-        <v>9.484075842447481e-7</v>
+        <v>9.51586443864727e-7</v>
       </c>
       <c r="F47">
-        <v>0.00010110880712131855</v>
+        <v>0.00010144770224354403</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.40138396757129297</v>
+        <v>0.40138363199601285</v>
       </c>
       <c r="I47">
         <v>0.401414155960083</v>
       </c>
       <c r="J47">
-        <v>3.0188388790042264e-5</v>
+        <v>3.052396407016156e-5</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2393,28 +2393,28 @@
         <v>60</v>
       </c>
       <c r="C48">
-        <v>0.968529897419314</v>
+        <v>0.968529898666726</v>
       </c>
       <c r="D48">
         <v>0.9685291290283203</v>
       </c>
       <c r="E48">
-        <v>7.683909936107014e-7</v>
+        <v>7.696384056732342e-7</v>
       </c>
       <c r="F48">
-        <v>7.933586823367842e-5</v>
+        <v>7.946466271441687e-5</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.30689493712358457</v>
+        <v>0.3068947966183613</v>
       </c>
       <c r="I48">
         <v>0.3069460690021515</v>
       </c>
       <c r="J48">
-        <v>5.113187856692347e-5</v>
+        <v>5.127238379021293e-5</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -2428,28 +2428,28 @@
         <v>61</v>
       </c>
       <c r="C49">
-        <v>0.9441623267253691</v>
+        <v>0.9441623291633786</v>
       </c>
       <c r="D49">
         <v>0.944161376953125</v>
       </c>
       <c r="E49">
-        <v>9.49772244185354e-7</v>
+        <v>9.52210253646335e-7</v>
       </c>
       <c r="F49">
-        <v>0.00010059426993829548</v>
+        <v>0.00010085248950970483</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.640831831306291</v>
+        <v>0.6408315142737981</v>
       </c>
       <c r="I49">
         <v>0.6408700942993164</v>
       </c>
       <c r="J49">
-        <v>3.8262993025450776e-5</v>
+        <v>3.858002551826445e-5</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
@@ -2463,28 +2463,28 @@
         <v>62</v>
       </c>
       <c r="C50">
-        <v>0.9374452323255626</v>
+        <v>0.9374452355838419</v>
       </c>
       <c r="D50">
         <v>0.9374442291259766</v>
       </c>
       <c r="E50">
-        <v>1.0031995860693144e-6</v>
+        <v>1.0064578652713152e-6</v>
       </c>
       <c r="F50">
-        <v>0.00010701432201515014</v>
+        <v>0.00010736189247329235</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.377739710560088</v>
+        <v>0.3777393724975448</v>
       </c>
       <c r="I50">
         <v>0.3777689933776855</v>
       </c>
       <c r="J50">
-        <v>2.928281759750906e-5</v>
+        <v>2.962088014069053e-5</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2498,28 +2498,28 @@
         <v>63</v>
       </c>
       <c r="C51">
-        <v>0.9370009268042548</v>
+        <v>0.9370009300543095</v>
       </c>
       <c r="D51">
         <v>0.9369998931884765</v>
       </c>
       <c r="E51">
-        <v>1.033615778300856e-6</v>
+        <v>1.0368658329706903e-6</v>
       </c>
       <c r="F51">
-        <v>0.00011031119489070692</v>
+        <v>0.00011065805241902262</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.3653529992502355</v>
+        <v>0.36535265880767737</v>
       </c>
       <c r="I51">
         <v>0.3653822541236877</v>
       </c>
       <c r="J51">
-        <v>2.9254873452178032e-5</v>
+        <v>2.9595316010322392e-5</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -2533,28 +2533,28 @@
         <v>64</v>
       </c>
       <c r="C52">
-        <v>0.9369379058958585</v>
+        <v>0.9369379091483662</v>
       </c>
       <c r="D52">
         <v>0.9369368743896485</v>
       </c>
       <c r="E52">
-        <v>1.0315062100030303e-6</v>
+        <v>1.0347587177106377e-6</v>
       </c>
       <c r="F52">
-        <v>0.00011009345860947008</v>
+        <v>0.0001104406012822063</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.36359506735207164</v>
+        <v>0.3635947271239263</v>
       </c>
       <c r="I52">
         <v>0.3636243045330048</v>
       </c>
       <c r="J52">
-        <v>2.9237180933172624e-5</v>
+        <v>2.9577409078496153e-5</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
@@ -2568,28 +2568,28 @@
         <v>65</v>
       </c>
       <c r="C53">
-        <v>0.9830946533350738</v>
+        <v>0.9830946541983888</v>
       </c>
       <c r="D53">
         <v>0.983093973795573</v>
       </c>
       <c r="E53">
-        <v>6.795395008918348e-7</v>
+        <v>6.804028158668984e-7</v>
       </c>
       <c r="F53">
-        <v>6.912253751980988e-5</v>
+        <v>6.92103536389272e-5</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>-0.3443503622841926</v>
+        <v>-0.344350355634012</v>
       </c>
       <c r="I53">
         <v>-0.3445114493370056</v>
       </c>
       <c r="J53">
-        <v>0.00016108705281303592</v>
+        <v>0.0001610937029936088</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2603,28 +2603,28 @@
         <v>66</v>
       </c>
       <c r="C54">
-        <v>0.9085142899233948</v>
+        <v>0.9085142954391985</v>
       </c>
       <c r="D54">
         <v>0.9085134124755859</v>
       </c>
       <c r="E54">
-        <v>8.774478088557913e-7</v>
+        <v>8.829636125584628e-7</v>
       </c>
       <c r="F54">
-        <v>9.65806114479758e-5</v>
+        <v>9.718773552858146e-5</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>-1.8879867444212697</v>
+        <v>-1.887986681924201</v>
       </c>
       <c r="I54">
         <v>-1.888107776641846</v>
       </c>
       <c r="J54">
-        <v>0.00012103222057624485</v>
+        <v>0.00012109471764487623</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2638,28 +2638,28 @@
         <v>67</v>
       </c>
       <c r="C55">
-        <v>0.9083096314545086</v>
+        <v>0.9083096370408256</v>
       </c>
       <c r="D55">
         <v>0.9083087921142579</v>
       </c>
       <c r="E55">
-        <v>8.393402507467229e-7</v>
+        <v>8.449265677112905e-7</v>
       </c>
       <c r="F55">
-        <v>9.240692791192763e-5</v>
+        <v>9.30219519008031e-5</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>-1.8850452816106096</v>
+        <v>-1.8850452187431168</v>
       </c>
       <c r="I55">
         <v>-1.885165452957153</v>
       </c>
       <c r="J55">
-        <v>0.00012017134654351835</v>
+        <v>0.00012023421403628554</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -2673,28 +2673,28 @@
         <v>68</v>
       </c>
       <c r="C56">
-        <v>0.9015591804606528</v>
+        <v>0.901559187332258</v>
       </c>
       <c r="D56">
         <v>0.9015583038330078</v>
       </c>
       <c r="E56">
-        <v>8.766276449190258e-7</v>
+        <v>8.834992502038119e-7</v>
       </c>
       <c r="F56">
-        <v>9.723471473691847e-5</v>
+        <v>9.799690673887454e-5</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>-1.8605909037140616</v>
+        <v>-1.8605908650434013</v>
       </c>
       <c r="I56">
         <v>-1.860689759254456</v>
       </c>
       <c r="J56">
-        <v>9.88555403944602e-5</v>
+        <v>9.889421105468976e-5</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2708,28 +2708,28 @@
         <v>69</v>
       </c>
       <c r="C57">
-        <v>0.9015675287176329</v>
+        <v>0.9015675356673144</v>
       </c>
       <c r="D57">
         <v>0.9015666198730469</v>
       </c>
       <c r="E57">
-        <v>9.088445860339078e-7</v>
+        <v>9.157942675308561e-7</v>
       </c>
       <c r="F57">
-        <v>0.00010080725772232848</v>
+        <v>0.0001015781027540497</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>-1.8150999281935494</v>
+        <v>-1.815099908108487</v>
       </c>
       <c r="I57">
         <v>-1.815194249153137</v>
       </c>
       <c r="J57">
-        <v>9.432095958761266e-5</v>
+        <v>9.434104464989268e-5</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -2743,28 +2743,28 @@
         <v>70</v>
       </c>
       <c r="C58">
-        <v>0.9016020964014798</v>
+        <v>0.9016021036527393</v>
       </c>
       <c r="D58">
         <v>0.9016011810302734</v>
       </c>
       <c r="E58">
-        <v>9.153712063891817e-7</v>
+        <v>9.22622465870937e-7</v>
       </c>
       <c r="F58">
-        <v>0.00010152728563899761</v>
+        <v>0.0001023315502777672</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>-1.6832286097040356</v>
+        <v>-1.6832286560653227</v>
       </c>
       <c r="I58">
         <v>-1.68330979347229</v>
       </c>
       <c r="J58">
-        <v>8.118376825438922e-5</v>
+        <v>8.11374069673576e-5</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -2778,28 +2778,28 @@
         <v>71</v>
       </c>
       <c r="C59">
-        <v>0.8983475485559113</v>
+        <v>0.8983475555484707</v>
       </c>
       <c r="D59">
         <v>0.8983467102050782</v>
       </c>
       <c r="E59">
-        <v>8.383508330878087e-7</v>
+        <v>8.45343392508191e-7</v>
       </c>
       <c r="F59">
-        <v>9.332152314515924e-5</v>
+        <v>9.409990406879908e-5</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>-2.0178408263995484</v>
+        <v>-2.017840751553253</v>
       </c>
       <c r="I59">
         <v>-2.017946481704712</v>
       </c>
       <c r="J59">
-        <v>0.00010565530516348787</v>
+        <v>0.00010573015145887155</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2813,28 +2813,28 @@
         <v>72</v>
       </c>
       <c r="C60">
-        <v>0.9034000080459712</v>
+        <v>0.9034000150701161</v>
       </c>
       <c r="D60">
         <v>0.9033990478515626</v>
       </c>
       <c r="E60">
-        <v>9.60194408650139e-7</v>
+        <v>9.67218553582505e-7</v>
       </c>
       <c r="F60">
-        <v>0.00010628685196576701</v>
+        <v>0.00010706437602327745</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>-1.4369139996870706</v>
+        <v>-1.4369141115588284</v>
       </c>
       <c r="I60">
         <v>-1.436975479125977</v>
       </c>
       <c r="J60">
-        <v>6.147943890644214e-5</v>
+        <v>6.136756714858471e-5</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -2883,28 +2883,28 @@
         <v>74</v>
       </c>
       <c r="C62">
-        <v>0.8983475485559114</v>
+        <v>0.8983475555489561</v>
       </c>
       <c r="D62">
         <v>0.8983467102050782</v>
       </c>
       <c r="E62">
-        <v>8.38350833198831e-7</v>
+        <v>8.453438778976974e-7</v>
       </c>
       <c r="F62">
-        <v>9.332152315751776e-5</v>
+        <v>9.409995810022156e-5</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>-2.0178408263995635</v>
+        <v>-2.0178407515068155</v>
       </c>
       <c r="I62">
         <v>-2.017946481704712</v>
       </c>
       <c r="J62">
-        <v>0.00010565530514838883</v>
+        <v>0.00010573019789639204</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -2918,28 +2918,28 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.9408132423167159</v>
+        <v>0.9408132447373314</v>
       </c>
       <c r="D63">
         <v>0.9408122253417969</v>
       </c>
       <c r="E63">
-        <v>1.016974919054725e-6</v>
+        <v>1.019395534540557e-6</v>
       </c>
       <c r="F63">
-        <v>0.0001080954192198404</v>
+        <v>0.00010835270918914886</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>0.7100521463129172</v>
+        <v>0.7100518432506072</v>
       </c>
       <c r="I63">
         <v>0.7100905179977417</v>
       </c>
       <c r="J63">
-        <v>3.837168482445641e-5</v>
+        <v>3.867474713448171e-5</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -2988,28 +2988,28 @@
         <v>77</v>
       </c>
       <c r="C65">
-        <v>0.9713159398283685</v>
+        <v>0.9713159409197089</v>
       </c>
       <c r="D65">
         <v>0.9713151550292969</v>
       </c>
       <c r="E65">
-        <v>7.84799071618103e-7</v>
+        <v>7.858904119695254e-7</v>
       </c>
       <c r="F65">
-        <v>8.079757301783599e-5</v>
+        <v>8.090992999546282e-5</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0.4015432004125934</v>
+        <v>0.40154306202933976</v>
       </c>
       <c r="I65">
         <v>0.4015965461730957</v>
       </c>
       <c r="J65">
-        <v>5.334576050231021e-5</v>
+        <v>5.3484143755944125e-5</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
@@ -3023,28 +3023,28 @@
         <v>78</v>
       </c>
       <c r="C66">
-        <v>0.9408132423167157</v>
+        <v>0.9408132447373314</v>
       </c>
       <c r="D66">
         <v>0.9408122253417969</v>
       </c>
       <c r="E66">
-        <v>1.0169749188326804e-6</v>
+        <v>1.019395534540557e-6</v>
       </c>
       <c r="F66">
-        <v>0.00010809541919623904</v>
+        <v>0.00010835270918914886</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>0.7100521464352072</v>
+        <v>0.7100518432506072</v>
       </c>
       <c r="I66">
         <v>0.7100905179977417</v>
       </c>
       <c r="J66">
-        <v>3.837156253450047e-5</v>
+        <v>3.867474713448171e-5</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
@@ -3058,28 +3058,28 @@
         <v>79</v>
       </c>
       <c r="C67">
-        <v>0.9245809142364916</v>
+        <v>0.9245809186943157</v>
       </c>
       <c r="D67">
         <v>0.924580078125</v>
       </c>
       <c r="E67">
-        <v>8.361114915977907e-7</v>
+        <v>8.405693157076399e-7</v>
       </c>
       <c r="F67">
-        <v>9.043148466851904e-5</v>
+        <v>9.09136304788516e-5</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>-1.5616449213506123</v>
+        <v>-1.5616448655627986</v>
       </c>
       <c r="I67">
         <v>-1.561777472496033</v>
       </c>
       <c r="J67">
-        <v>0.00013255114542065627</v>
+        <v>0.00013260693323435824</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
@@ -3093,28 +3093,28 @@
         <v>80</v>
       </c>
       <c r="C68">
-        <v>0.9245809142261444</v>
+        <v>0.9245809187883752</v>
       </c>
       <c r="D68">
         <v>0.924580078125</v>
       </c>
       <c r="E68">
-        <v>8.361011444302235e-7</v>
+        <v>8.406633752455761e-7</v>
       </c>
       <c r="F68">
-        <v>9.043036554776228e-5</v>
+        <v>9.092380369587862e-5</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>-1.5616449210227206</v>
+        <v>-1.5616448568200916</v>
       </c>
       <c r="I68">
         <v>-1.561777472496033</v>
       </c>
       <c r="J68">
-        <v>0.00013255147331237005</v>
+        <v>0.00013261567594136103</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
@@ -3128,28 +3128,28 @@
         <v>81</v>
       </c>
       <c r="C69">
-        <v>0.9039033095738749</v>
+        <v>0.9039033165390759</v>
       </c>
       <c r="D69">
         <v>0.903902359008789</v>
       </c>
       <c r="E69">
-        <v>9.505650858665504e-7</v>
+        <v>9.57530286838093e-7</v>
       </c>
       <c r="F69">
-        <v>0.0001051623636549562</v>
+        <v>0.00010593293371732229</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>-1.4223613792500645</v>
+        <v>-1.4223614865800351</v>
       </c>
       <c r="I69">
         <v>-1.422422885894775</v>
       </c>
       <c r="J69">
-        <v>6.150664471049616e-5</v>
+        <v>6.139931473980731e-5</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
@@ -3163,28 +3163,28 @@
         <v>82</v>
       </c>
       <c r="C70">
-        <v>0.9037595031586483</v>
+        <v>0.9037595101623449</v>
       </c>
       <c r="D70">
         <v>0.903758544921875</v>
       </c>
       <c r="E70">
-        <v>9.582367732630104e-7</v>
+        <v>9.652404698856643e-7</v>
       </c>
       <c r="F70">
-        <v>0.00010602796273930055</v>
+        <v>0.00010680291492780343</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>-1.4265176153604078</v>
+        <v>-1.4265177263716748</v>
       </c>
       <c r="I70">
         <v>-1.426579117774963</v>
       </c>
       <c r="J70">
-        <v>6.150241455515904e-5</v>
+        <v>6.139140328809134e-5</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
@@ -3198,28 +3198,28 @@
         <v>83</v>
       </c>
       <c r="C71">
-        <v>0.9054241643948029</v>
+        <v>0.9054241712214778</v>
       </c>
       <c r="D71">
         <v>0.9054232025146485</v>
       </c>
       <c r="E71">
-        <v>9.6188015441534e-7</v>
+        <v>9.687068293073864e-7</v>
       </c>
       <c r="F71">
-        <v>0.00010623542137465579</v>
+        <v>0.0001069893975123433</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>-1.3008495314782593</v>
+        <v>-1.3008496640171796</v>
       </c>
       <c r="I71">
         <v>-1.300903081893921</v>
       </c>
       <c r="J71">
-        <v>5.3550415661574036e-5</v>
+        <v>5.3417876741290726e-5</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
